--- a/src/main/resources/static/STATISTIQUES_ACCUEIL_ICC_METZ.xlsx
+++ b/src/main/resources/static/STATISTIQUES_ACCUEIL_ICC_METZ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="224">
   <si>
     <t>JOUR</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>INEBRANLABLE  DANS TES IDENTITES EN CHRIST</t>
-  </si>
-  <si>
-    <t>31/3/0203</t>
   </si>
   <si>
     <t>Pasteur Ghislain BIABATANTOU</t>
@@ -555,24 +552,6 @@
     <t>MCEP</t>
   </si>
   <si>
-    <t>50(35)</t>
-  </si>
-  <si>
-    <t>52(54)</t>
-  </si>
-  <si>
-    <t>10(6)</t>
-  </si>
-  <si>
-    <t>132(118)</t>
-  </si>
-  <si>
-    <t>142(129)</t>
-  </si>
-  <si>
-    <t>30(35)</t>
-  </si>
-  <si>
     <t>Pasteur Armond GOURDET/ Pasteur Cyril GBATHA</t>
   </si>
   <si>
@@ -615,15 +594,6 @@
     <t>POURQUOI TANT DE DEGATS ET DE SCANDALES DANS LES EGLISES</t>
   </si>
   <si>
-    <t>22:</t>
-  </si>
-  <si>
-    <t>21:</t>
-  </si>
-  <si>
-    <t>14:</t>
-  </si>
-  <si>
     <t>ATELIER DES FEMMES MFI</t>
   </si>
   <si>
@@ -634,9 +604,6 @@
   </si>
   <si>
     <t>VEILLEE POUR EVANGELISATION</t>
-  </si>
-  <si>
-    <t>3:</t>
   </si>
   <si>
     <t>1ere SOIREE 21 JOURS</t>
@@ -708,9 +675,6 @@
     <t>NE DOUTES PAS, SES PROMESSES S4ACCOMPLIRONT TOUJOURS</t>
   </si>
   <si>
-    <t>17:</t>
-  </si>
-  <si>
     <t>DIEU VA AGIR DANS TA VIE EN FONCTION DE LA RÉVÉLATION QUE TU AS DE LUI</t>
   </si>
   <si>
@@ -733,8 +697,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -829,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -908,9 +873,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -919,6 +881,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,13 +1106,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC936"/>
+  <dimension ref="A1:AC937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="V143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="X119" sqref="X119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1166,8 +1138,8 @@
     <col min="20" max="20" width="26.109375" customWidth="1"/>
     <col min="21" max="21" width="62" customWidth="1"/>
     <col min="22" max="22" width="72.109375" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" style="48" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" style="48" customWidth="1"/>
     <col min="25" max="29" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1236,15 +1208,15 @@
       <c r="V1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1314,10 +1286,10 @@
       <c r="V2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="36">
+      <c r="W2" s="45">
         <v>0.4465277777777778</v>
       </c>
-      <c r="X2" s="36">
+      <c r="X2" s="45">
         <v>0.57430555555555551</v>
       </c>
       <c r="Y2" s="12"/>
@@ -1377,10 +1349,10 @@
         <v>50</v>
       </c>
       <c r="V3" s="17"/>
-      <c r="W3" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="X3" s="37">
+      <c r="W3" s="46">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="X3" s="46">
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="Y3" s="17"/>
@@ -1458,10 +1430,10 @@
       <c r="V4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="36">
+      <c r="W4" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X4" s="36">
+      <c r="X4" s="45">
         <v>0.51527777777777772</v>
       </c>
       <c r="Y4" s="12"/>
@@ -1521,10 +1493,10 @@
         <v>56</v>
       </c>
       <c r="V5" s="17"/>
-      <c r="W5" s="37">
+      <c r="W5" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X5" s="37">
+      <c r="X5" s="46">
         <v>0.88194444444444442</v>
       </c>
       <c r="Y5" s="17"/>
@@ -1584,10 +1556,10 @@
         <v>56</v>
       </c>
       <c r="V6" s="17"/>
-      <c r="W6" s="37">
+      <c r="W6" s="46">
         <v>0.58680555555555558</v>
       </c>
-      <c r="X6" s="37">
+      <c r="X6" s="46">
         <v>0.70833333333333337</v>
       </c>
       <c r="Y6" s="17"/>
@@ -1664,10 +1636,10 @@
       <c r="V7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W7" s="36">
+      <c r="W7" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X7" s="36">
+      <c r="X7" s="45">
         <v>0.51597222222222228</v>
       </c>
       <c r="Y7" s="12"/>
@@ -1727,10 +1699,10 @@
         <v>56</v>
       </c>
       <c r="V8" s="17"/>
-      <c r="W8" s="37">
+      <c r="W8" s="46">
         <v>0.82638888888888884</v>
       </c>
-      <c r="X8" s="37">
+      <c r="X8" s="46">
         <v>0.87638888888888888</v>
       </c>
       <c r="Y8" s="17"/>
@@ -1790,10 +1762,10 @@
         <v>56</v>
       </c>
       <c r="V9" s="17"/>
-      <c r="W9" s="37">
+      <c r="W9" s="46">
         <v>0.91666666666666663</v>
       </c>
-      <c r="X9" s="37">
+      <c r="X9" s="46">
         <v>8.611111111111111E-2</v>
       </c>
       <c r="Y9" s="17"/>
@@ -1870,10 +1842,10 @@
       <c r="V10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="W10" s="36">
+      <c r="W10" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X10" s="36">
+      <c r="X10" s="45">
         <v>0.52083333333333337</v>
       </c>
       <c r="Y10" s="12"/>
@@ -1933,10 +1905,10 @@
         <v>49</v>
       </c>
       <c r="V11" s="17"/>
-      <c r="W11" s="37">
+      <c r="W11" s="46">
         <v>0.81805555555555554</v>
       </c>
-      <c r="X11" s="37">
+      <c r="X11" s="46">
         <v>0.87222222222222223</v>
       </c>
       <c r="Y11" s="17"/>
@@ -2014,10 +1986,10 @@
       <c r="V12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="W12" s="36">
+      <c r="W12" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X12" s="36">
+      <c r="X12" s="45">
         <v>0.52916666666666667</v>
       </c>
       <c r="Y12" s="12"/>
@@ -2027,7 +1999,7 @@
       <c r="AC12" s="12"/>
     </row>
     <row r="13" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -2093,10 +2065,10 @@
       <c r="V13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="W13" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="X13" s="37">
+      <c r="W13" s="46">
+        <v>0.875</v>
+      </c>
+      <c r="X13" s="46">
         <v>0.94652777777777775</v>
       </c>
     </row>
@@ -2153,10 +2125,10 @@
       <c r="V14" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="W14" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="X14" s="37">
+      <c r="W14" s="46">
+        <v>0.875</v>
+      </c>
+      <c r="X14" s="46">
         <v>0.9506944444444444</v>
       </c>
     </row>
@@ -2225,10 +2197,10 @@
       <c r="V15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="W15" s="37">
+      <c r="W15" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X15" s="37">
+      <c r="X15" s="46">
         <v>0.91527777777777775</v>
       </c>
     </row>
@@ -2287,10 +2259,10 @@
       <c r="V16" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="W16" s="37">
+      <c r="W16" s="46">
         <v>0.625</v>
       </c>
-      <c r="X16" s="37">
+      <c r="X16" s="46">
         <v>0.74861111111111112</v>
       </c>
     </row>
@@ -2362,10 +2334,10 @@
       <c r="V17" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="W17" s="36">
+      <c r="W17" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X17" s="36">
+      <c r="X17" s="45">
         <v>0.53194444444444444</v>
       </c>
     </row>
@@ -2432,10 +2404,10 @@
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
-      <c r="W18" s="37">
+      <c r="W18" s="46">
         <v>0.82638888888888884</v>
       </c>
-      <c r="X18" s="37">
+      <c r="X18" s="46">
         <v>0.87708333333333333</v>
       </c>
     </row>
@@ -2508,10 +2480,10 @@
       <c r="V19" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="W19" s="36">
+      <c r="W19" s="45">
         <v>0.39513888888888887</v>
       </c>
-      <c r="X19" s="36">
+      <c r="X19" s="45">
         <v>0.51388888888888884</v>
       </c>
     </row>
@@ -2566,10 +2538,10 @@
       <c r="T20" s="17"/>
       <c r="U20" s="18"/>
       <c r="V20" s="17"/>
-      <c r="W20" s="37">
+      <c r="W20" s="46">
         <v>0.81319444444444444</v>
       </c>
-      <c r="X20" s="37">
+      <c r="X20" s="46">
         <v>0.875</v>
       </c>
     </row>
@@ -2641,10 +2613,10 @@
       <c r="V21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="W21" s="36">
+      <c r="W21" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X21" s="36">
+      <c r="X21" s="45">
         <v>0.52500000000000002</v>
       </c>
     </row>
@@ -2699,10 +2671,10 @@
       <c r="T22" s="17"/>
       <c r="U22" s="18"/>
       <c r="V22" s="17"/>
-      <c r="W22" s="37">
+      <c r="W22" s="46">
         <v>0.81944444444444442</v>
       </c>
-      <c r="X22" s="37">
+      <c r="X22" s="46">
         <v>0.875</v>
       </c>
     </row>
@@ -2775,15 +2747,15 @@
       <c r="V23" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="W23" s="36">
+      <c r="W23" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X23" s="36">
+      <c r="X23" s="45">
         <v>0.53125</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -2849,10 +2821,10 @@
       <c r="V24" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="W24" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="X24" s="37">
+      <c r="W24" s="46">
+        <v>0.875</v>
+      </c>
+      <c r="X24" s="46">
         <v>0.94652777777777775</v>
       </c>
     </row>
@@ -2909,10 +2881,10 @@
       <c r="V25" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="W25" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="X25" s="37">
+      <c r="W25" s="46">
+        <v>0.875</v>
+      </c>
+      <c r="X25" s="46">
         <v>0.9506944444444444</v>
       </c>
     </row>
@@ -2981,10 +2953,10 @@
       <c r="V26" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="W26" s="37">
+      <c r="W26" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X26" s="37">
+      <c r="X26" s="46">
         <v>0.91527777777777775</v>
       </c>
     </row>
@@ -3056,10 +3028,10 @@
       <c r="V27" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="W27" s="36">
+      <c r="W27" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X27" s="36">
+      <c r="X27" s="45">
         <v>0.53194444444444444</v>
       </c>
     </row>
@@ -3128,10 +3100,10 @@
         <v>56</v>
       </c>
       <c r="V28" s="18"/>
-      <c r="W28" s="37">
+      <c r="W28" s="46">
         <v>0.82638888888888884</v>
       </c>
-      <c r="X28" s="37">
+      <c r="X28" s="46">
         <v>0.87708333333333333</v>
       </c>
     </row>
@@ -3204,10 +3176,10 @@
       <c r="V29" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="W29" s="36">
+      <c r="W29" s="45">
         <v>0.39513888888888887</v>
       </c>
-      <c r="X29" s="36">
+      <c r="X29" s="45">
         <v>0.51388888888888884</v>
       </c>
     </row>
@@ -3262,10 +3234,10 @@
         <v>56</v>
       </c>
       <c r="V30" s="17"/>
-      <c r="W30" s="37">
+      <c r="W30" s="46">
         <v>0.81597222222222221</v>
       </c>
-      <c r="X30" s="37">
+      <c r="X30" s="46">
         <v>0.875</v>
       </c>
     </row>
@@ -3316,10 +3288,10 @@
       <c r="T31" s="17"/>
       <c r="U31" s="18"/>
       <c r="V31" s="17"/>
-      <c r="W31" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="X31" s="37">
+      <c r="W31" s="46">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="X31" s="46">
         <v>0.74513888888888891</v>
       </c>
     </row>
@@ -3391,10 +3363,10 @@
       <c r="V32" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="W32" s="36">
+      <c r="W32" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X32" s="36">
+      <c r="X32" s="45">
         <v>0.53194444444444444</v>
       </c>
     </row>
@@ -3449,10 +3421,10 @@
         <v>56</v>
       </c>
       <c r="V33" s="17"/>
-      <c r="W33" s="37">
+      <c r="W33" s="46">
         <v>0.81458333333333333</v>
       </c>
-      <c r="X33" s="37">
+      <c r="X33" s="46">
         <v>0.87569444444444444</v>
       </c>
     </row>
@@ -3522,10 +3494,10 @@
         <v>50</v>
       </c>
       <c r="V34" s="19"/>
-      <c r="W34" s="36">
+      <c r="W34" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X34" s="36">
+      <c r="X34" s="45">
         <v>0.53055555555555556</v>
       </c>
     </row>
@@ -3534,8 +3506,8 @@
       <c r="B35" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>84</v>
+      <c r="C35" s="24">
+        <v>45016</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>55</v>
@@ -3574,15 +3546,15 @@
         <v>56</v>
       </c>
       <c r="V35" s="28"/>
-      <c r="W35" s="38">
+      <c r="W35" s="47">
         <v>0.8125</v>
       </c>
-      <c r="X35" s="38">
+      <c r="X35" s="47">
         <v>0.87986111111111109</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -3647,15 +3619,15 @@
         <v>56</v>
       </c>
       <c r="U36" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V36" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="V36" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="W36" s="36">
+      <c r="W36" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X36" s="36">
+      <c r="X36" s="45">
         <v>0.52430555555555558</v>
       </c>
     </row>
@@ -3668,7 +3640,7 @@
         <v>45022</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="15">
         <v>9</v>
@@ -3710,12 +3682,12 @@
         <v>50</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="W37" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="X37" s="37">
+        <v>87</v>
+      </c>
+      <c r="W37" s="46">
+        <v>0.875</v>
+      </c>
+      <c r="X37" s="46">
         <v>0.96597222222222223</v>
       </c>
     </row>
@@ -3728,7 +3700,7 @@
         <v>45023</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" s="15">
         <v>9</v>
@@ -3782,12 +3754,12 @@
         <v>50</v>
       </c>
       <c r="V38" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="W38" s="37">
+        <v>89</v>
+      </c>
+      <c r="W38" s="46">
         <v>0.81736111111111109</v>
       </c>
-      <c r="X38" s="37">
+      <c r="X38" s="46">
         <v>0.8979166666666667</v>
       </c>
     </row>
@@ -3836,10 +3808,10 @@
         <v>56</v>
       </c>
       <c r="V39" s="21"/>
-      <c r="W39" s="37">
+      <c r="W39" s="46">
         <v>0.43055555555555558</v>
       </c>
-      <c r="X39" s="37">
+      <c r="X39" s="46">
         <v>0.50208333333333333</v>
       </c>
     </row>
@@ -3909,12 +3881,12 @@
         <v>75</v>
       </c>
       <c r="V40" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="W40" s="36">
+        <v>90</v>
+      </c>
+      <c r="W40" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X40" s="36">
+      <c r="X40" s="45">
         <v>0.52430555555555558</v>
       </c>
     </row>
@@ -3978,13 +3950,13 @@
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
       <c r="U41" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V41" s="18"/>
-      <c r="W41" s="37">
+      <c r="W41" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X41" s="37">
+      <c r="X41" s="46">
         <v>0.89583333333333337</v>
       </c>
     </row>
@@ -4055,12 +4027,12 @@
         <v>50</v>
       </c>
       <c r="V42" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="W42" s="36">
+        <v>92</v>
+      </c>
+      <c r="W42" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X42" s="36">
+      <c r="X42" s="45">
         <v>0.52430555555555558</v>
       </c>
     </row>
@@ -4115,10 +4087,10 @@
         <v>56</v>
       </c>
       <c r="V43" s="17"/>
-      <c r="W43" s="37">
+      <c r="W43" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X43" s="37">
+      <c r="X43" s="46">
         <v>0.8881944444444444</v>
       </c>
     </row>
@@ -4131,7 +4103,7 @@
         <v>45038</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E44" s="15">
         <v>5</v>
@@ -4167,10 +4139,10 @@
         <v>73</v>
       </c>
       <c r="V44" s="17"/>
-      <c r="W44" s="37">
+      <c r="W44" s="46">
         <v>0.62777777777777777</v>
       </c>
-      <c r="X44" s="37">
+      <c r="X44" s="46">
         <v>0.73958333333333337</v>
       </c>
     </row>
@@ -4234,18 +4206,18 @@
         <v>58</v>
       </c>
       <c r="T45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="U45" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="U45" s="11" t="s">
+      <c r="V45" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="V45" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="W45" s="36">
+      <c r="W45" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X45" s="36">
+      <c r="X45" s="45">
         <v>0.53194444444444444</v>
       </c>
     </row>
@@ -4300,10 +4272,10 @@
         <v>56</v>
       </c>
       <c r="V46" s="17"/>
-      <c r="W46" s="37">
+      <c r="W46" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X46" s="37">
+      <c r="X46" s="46">
         <v>0.90763888888888888</v>
       </c>
     </row>
@@ -4316,7 +4288,7 @@
         <v>45045</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" s="15">
         <v>9</v>
@@ -4350,10 +4322,10 @@
         <v>50</v>
       </c>
       <c r="V47" s="17"/>
-      <c r="W47" s="37">
+      <c r="W47" s="46">
         <v>0.66805555555555551</v>
       </c>
-      <c r="X47" s="37">
+      <c r="X47" s="46">
         <v>0.80555555555555558</v>
       </c>
     </row>
@@ -4418,23 +4390,23 @@
         <v>53</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U48" s="11" t="s">
         <v>50</v>
       </c>
       <c r="V48" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="W48" s="36">
+        <v>98</v>
+      </c>
+      <c r="W48" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X48" s="36">
+      <c r="X48" s="45">
         <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -4498,12 +4470,12 @@
         <v>50</v>
       </c>
       <c r="V49" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="W49" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="X49" s="37">
+        <v>99</v>
+      </c>
+      <c r="W49" s="46">
+        <v>0.875</v>
+      </c>
+      <c r="X49" s="46">
         <v>0.96180555555555558</v>
       </c>
     </row>
@@ -4560,10 +4532,10 @@
       <c r="V50" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="W50" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="X50" s="37">
+      <c r="W50" s="46">
+        <v>0.875</v>
+      </c>
+      <c r="X50" s="46">
         <v>0.9506944444444444</v>
       </c>
     </row>
@@ -4632,10 +4604,10 @@
       <c r="V51" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="W51" s="37">
+      <c r="W51" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X51" s="37">
+      <c r="X51" s="46">
         <v>0.91527777777777775</v>
       </c>
     </row>
@@ -4698,7 +4670,7 @@
         <v>16</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T52" s="11" t="s">
         <v>56</v>
@@ -4707,12 +4679,12 @@
         <v>75</v>
       </c>
       <c r="V52" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="W52" s="36">
+        <v>101</v>
+      </c>
+      <c r="W52" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X52" s="36">
+      <c r="X52" s="45">
         <v>0.53680555555555554</v>
       </c>
     </row>
@@ -4776,15 +4748,15 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
       <c r="U53" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="V53" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="V53" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="W53" s="37">
+      <c r="W53" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X53" s="37">
+      <c r="X53" s="46">
         <v>0.92638888888888893</v>
       </c>
     </row>
@@ -4849,18 +4821,18 @@
         <v>48</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U54" s="11" t="s">
         <v>50</v>
       </c>
       <c r="V54" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="W54" s="36">
+        <v>105</v>
+      </c>
+      <c r="W54" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X54" s="36">
+      <c r="X54" s="45">
         <v>0.52777777777777779</v>
       </c>
     </row>
@@ -4912,13 +4884,13 @@
       <c r="S55" s="17"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V55" s="17"/>
-      <c r="W55" s="37">
+      <c r="W55" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X55" s="37">
+      <c r="X55" s="46">
         <v>0.875</v>
       </c>
     </row>
@@ -4989,12 +4961,12 @@
         <v>50</v>
       </c>
       <c r="V56" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="W56" s="36">
+        <v>106</v>
+      </c>
+      <c r="W56" s="45">
         <v>0.3972222222222222</v>
       </c>
-      <c r="X56" s="36">
+      <c r="X56" s="45">
         <v>0.54027777777777775</v>
       </c>
     </row>
@@ -5049,10 +5021,10 @@
         <v>56</v>
       </c>
       <c r="V57" s="17"/>
-      <c r="W57" s="37">
+      <c r="W57" s="46">
         <v>0.81458333333333333</v>
       </c>
-      <c r="X57" s="37">
+      <c r="X57" s="46">
         <v>0.87569444444444444</v>
       </c>
     </row>
@@ -5065,7 +5037,7 @@
         <v>45073</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E58" s="15">
         <v>15</v>
@@ -5108,10 +5080,10 @@
         <v>56</v>
       </c>
       <c r="V58" s="17"/>
-      <c r="W58" s="37">
+      <c r="W58" s="46">
         <v>0.54791666666666672</v>
       </c>
-      <c r="X58" s="37">
+      <c r="X58" s="46">
         <v>0.7</v>
       </c>
     </row>
@@ -5176,16 +5148,16 @@
         <v>56</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U59" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V59" s="19"/>
-      <c r="W59" s="36">
+      <c r="W59" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X59" s="36">
+      <c r="X59" s="45">
         <v>0.52777777777777779</v>
       </c>
     </row>
@@ -5198,7 +5170,7 @@
         <v>45077</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E60" s="25">
         <v>10</v>
@@ -5230,17 +5202,17 @@
       <c r="T60" s="26"/>
       <c r="U60" s="26"/>
       <c r="V60" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="W60" s="38">
+        <v>110</v>
+      </c>
+      <c r="W60" s="47">
         <v>0.875</v>
       </c>
-      <c r="X60" s="38">
+      <c r="X60" s="47">
         <v>0.96458333333333335</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="13" t="s">
@@ -5250,7 +5222,7 @@
         <v>45078</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="15">
         <v>10</v>
@@ -5304,12 +5276,12 @@
         <v>50</v>
       </c>
       <c r="V61" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="W61" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="X61" s="37">
+        <v>112</v>
+      </c>
+      <c r="W61" s="46">
+        <v>0.875</v>
+      </c>
+      <c r="X61" s="46">
         <v>0.96319444444444446</v>
       </c>
     </row>
@@ -5322,7 +5294,7 @@
         <v>45079</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" s="15">
         <v>11</v>
@@ -5364,12 +5336,12 @@
         <v>50</v>
       </c>
       <c r="V62" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="W62" s="37">
+        <v>114</v>
+      </c>
+      <c r="W62" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X62" s="37">
+      <c r="X62" s="46">
         <v>0.9243055555555556</v>
       </c>
     </row>
@@ -5431,7 +5403,7 @@
         <v>16</v>
       </c>
       <c r="S63" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T63" s="11" t="s">
         <v>56</v>
@@ -5440,12 +5412,12 @@
         <v>75</v>
       </c>
       <c r="V63" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="W63" s="36">
+        <v>115</v>
+      </c>
+      <c r="W63" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X63" s="36">
+      <c r="X63" s="45">
         <v>0.54097222222222219</v>
       </c>
     </row>
@@ -5512,10 +5484,10 @@
         <v>56</v>
       </c>
       <c r="V64" s="18"/>
-      <c r="W64" s="37">
+      <c r="W64" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X64" s="37">
+      <c r="X64" s="46">
         <v>0.875</v>
       </c>
     </row>
@@ -5580,18 +5552,18 @@
         <v>48</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U65" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="V65" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="V65" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="W65" s="36">
+      <c r="W65" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X65" s="36">
+      <c r="X65" s="45">
         <v>0.52986111111111112</v>
       </c>
     </row>
@@ -5646,10 +5618,10 @@
         <v>73</v>
       </c>
       <c r="V66" s="17"/>
-      <c r="W66" s="37">
+      <c r="W66" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X66" s="37">
+      <c r="X66" s="46">
         <v>0.875</v>
       </c>
     </row>
@@ -5699,19 +5671,19 @@
       <c r="Q67" s="17"/>
       <c r="R67" s="17"/>
       <c r="S67" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T67" s="18"/>
       <c r="U67" s="18" t="s">
         <v>73</v>
       </c>
       <c r="V67" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="W67" s="37">
+        <v>120</v>
+      </c>
+      <c r="W67" s="46">
         <v>0.62777777777777777</v>
       </c>
-      <c r="X67" s="37">
+      <c r="X67" s="46">
         <v>0.75347222222222221</v>
       </c>
     </row>
@@ -5773,7 +5745,7 @@
         <v>12</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T68" s="11" t="s">
         <v>62</v>
@@ -5782,12 +5754,12 @@
         <v>50</v>
       </c>
       <c r="V68" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="W68" s="36">
+        <v>106</v>
+      </c>
+      <c r="W68" s="45">
         <v>0.3972222222222222</v>
       </c>
-      <c r="X68" s="36">
+      <c r="X68" s="45">
         <v>0.54027777777777775</v>
       </c>
     </row>
@@ -5839,13 +5811,13 @@
       <c r="S69" s="17"/>
       <c r="T69" s="17"/>
       <c r="U69" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V69" s="17"/>
-      <c r="W69" s="37">
+      <c r="W69" s="46">
         <v>0.81736111111111109</v>
       </c>
-      <c r="X69" s="37">
+      <c r="X69" s="46">
         <v>0.87638888888888888</v>
       </c>
     </row>
@@ -5858,7 +5830,7 @@
         <v>45100</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E70" s="15">
         <v>11</v>
@@ -5898,10 +5870,10 @@
       <c r="T70" s="17"/>
       <c r="U70" s="18"/>
       <c r="V70" s="17"/>
-      <c r="W70" s="37">
+      <c r="W70" s="46">
         <v>0.91597222222222219</v>
       </c>
-      <c r="X70" s="37">
+      <c r="X70" s="46">
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
@@ -5972,12 +5944,12 @@
         <v>56</v>
       </c>
       <c r="V71" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="W71" s="36">
+        <v>122</v>
+      </c>
+      <c r="W71" s="45">
         <v>0.39513888888888887</v>
       </c>
-      <c r="X71" s="36">
+      <c r="X71" s="45">
         <v>0.52986111111111112</v>
       </c>
     </row>
@@ -5990,7 +5962,7 @@
         <v>45106</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E72" s="25">
         <v>10</v>
@@ -6022,12 +5994,12 @@
       <c r="T72" s="26"/>
       <c r="U72" s="26"/>
       <c r="V72" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="W72" s="38">
+        <v>124</v>
+      </c>
+      <c r="W72" s="47">
         <v>0.87777777777777777</v>
       </c>
-      <c r="X72" s="38">
+      <c r="X72" s="47">
         <v>0.97222222222222221</v>
       </c>
     </row>
@@ -6040,7 +6012,7 @@
         <v>45107</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E73" s="25">
         <v>0</v>
@@ -6072,11 +6044,15 @@
       <c r="T73" s="26"/>
       <c r="U73" s="26"/>
       <c r="V73" s="28"/>
-      <c r="W73" s="26"/>
-      <c r="X73" s="26"/>
+      <c r="W73" s="47">
+        <v>0</v>
+      </c>
+      <c r="X73" s="47">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -6144,12 +6120,12 @@
         <v>50</v>
       </c>
       <c r="V74" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="W74" s="36">
+        <v>126</v>
+      </c>
+      <c r="W74" s="45">
         <v>0.39513888888888887</v>
       </c>
-      <c r="X74" s="36">
+      <c r="X74" s="45">
         <v>0.55208333333333337</v>
       </c>
     </row>
@@ -6162,7 +6138,7 @@
         <v>45110</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E75" s="15">
         <v>3</v>
@@ -6204,12 +6180,12 @@
         <v>50</v>
       </c>
       <c r="V75" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="W75" s="37">
+        <v>114</v>
+      </c>
+      <c r="W75" s="46">
         <v>0.77430555555555558</v>
       </c>
-      <c r="X75" s="37">
+      <c r="X75" s="46">
         <v>0.90763888888888888</v>
       </c>
     </row>
@@ -6222,7 +6198,7 @@
         <v>45111</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E76" s="15">
         <v>3</v>
@@ -6254,10 +6230,10 @@
       <c r="T76" s="17"/>
       <c r="U76" s="18"/>
       <c r="V76" s="20"/>
-      <c r="W76" s="37">
+      <c r="W76" s="46">
         <v>0.76041666666666663</v>
       </c>
-      <c r="X76" s="37">
+      <c r="X76" s="46">
         <v>0.92569444444444449</v>
       </c>
     </row>
@@ -6270,7 +6246,7 @@
         <v>45112</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E77" s="15">
         <v>2</v>
@@ -6302,10 +6278,10 @@
       <c r="T77" s="17"/>
       <c r="U77" s="18"/>
       <c r="V77" s="20"/>
-      <c r="W77" s="37">
+      <c r="W77" s="46">
         <v>0.83333333333333337</v>
       </c>
-      <c r="X77" s="37">
+      <c r="X77" s="46">
         <v>0.9604166666666667</v>
       </c>
     </row>
@@ -6318,7 +6294,7 @@
         <v>45113</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E78" s="15">
         <v>1</v>
@@ -6350,10 +6326,10 @@
       <c r="T78" s="17"/>
       <c r="U78" s="18"/>
       <c r="V78" s="20"/>
-      <c r="W78" s="37">
+      <c r="W78" s="46">
         <v>0.77083333333333337</v>
       </c>
-      <c r="X78" s="37">
+      <c r="X78" s="46">
         <v>0.92986111111111114</v>
       </c>
     </row>
@@ -6366,7 +6342,7 @@
         <v>45114</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E79" s="15">
         <v>4</v>
@@ -6398,10 +6374,10 @@
       <c r="T79" s="17"/>
       <c r="U79" s="18"/>
       <c r="V79" s="20"/>
-      <c r="W79" s="37">
+      <c r="W79" s="46">
         <v>0.77083333333333337</v>
       </c>
-      <c r="X79" s="37">
+      <c r="X79" s="46">
         <v>0.92222222222222228</v>
       </c>
     </row>
@@ -6466,18 +6442,18 @@
         <v>56</v>
       </c>
       <c r="T80" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="U80" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="U80" s="11" t="s">
+      <c r="V80" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="V80" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="W80" s="36">
+      <c r="W80" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X80" s="36">
+      <c r="X80" s="45">
         <v>0.56180555555555556</v>
       </c>
     </row>
@@ -6541,13 +6517,13 @@
       <c r="S81" s="18"/>
       <c r="T81" s="18"/>
       <c r="U81" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V81" s="18"/>
-      <c r="W81" s="37">
+      <c r="W81" s="46">
         <v>0.81319444444444444</v>
       </c>
-      <c r="X81" s="37">
+      <c r="X81" s="46">
         <v>0.87430555555555556</v>
       </c>
     </row>
@@ -6560,7 +6536,7 @@
         <v>45121</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E82" s="15">
         <v>11</v>
@@ -6591,13 +6567,13 @@
       <c r="S82" s="18"/>
       <c r="T82" s="18"/>
       <c r="U82" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V82" s="18"/>
-      <c r="W82" s="37">
+      <c r="W82" s="46">
         <v>0.85416666666666663</v>
       </c>
-      <c r="X82" s="37">
+      <c r="X82" s="46">
         <v>0.97013888888888888</v>
       </c>
     </row>
@@ -6665,15 +6641,15 @@
         <v>49</v>
       </c>
       <c r="U83" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="V83" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="V83" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="W83" s="36">
+      <c r="W83" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X83" s="36">
+      <c r="X83" s="45">
         <v>0.52569444444444446</v>
       </c>
     </row>
@@ -6728,10 +6704,10 @@
         <v>73</v>
       </c>
       <c r="V84" s="17"/>
-      <c r="W84" s="37">
+      <c r="W84" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X84" s="37">
+      <c r="X84" s="46">
         <v>0.8833333333333333</v>
       </c>
     </row>
@@ -6744,7 +6720,7 @@
         <v>45128</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E85" s="15">
         <v>2</v>
@@ -6777,10 +6753,10 @@
         <v>73</v>
       </c>
       <c r="V85" s="17"/>
-      <c r="W85" s="37">
+      <c r="W85" s="46">
         <v>0.91666666666666663</v>
       </c>
-      <c r="X85" s="37">
+      <c r="X85" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -6845,18 +6821,18 @@
         <v>58</v>
       </c>
       <c r="T86" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="U86" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="U86" s="11" t="s">
+      <c r="V86" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="V86" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="W86" s="36">
+      <c r="W86" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X86" s="36">
+      <c r="X86" s="45">
         <v>0.52569444444444446</v>
       </c>
     </row>
@@ -6908,13 +6884,13 @@
       <c r="S87" s="17"/>
       <c r="T87" s="17"/>
       <c r="U87" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V87" s="17"/>
-      <c r="W87" s="37">
+      <c r="W87" s="46">
         <v>0.81458333333333333</v>
       </c>
-      <c r="X87" s="37">
+      <c r="X87" s="46">
         <v>0.87708333333333333</v>
       </c>
     </row>
@@ -6976,21 +6952,21 @@
         <v>18</v>
       </c>
       <c r="S88" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T88" s="11" t="s">
         <v>59</v>
       </c>
       <c r="U88" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="V88" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="V88" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="W88" s="36">
+      <c r="W88" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X88" s="36">
+      <c r="X88" s="45">
         <v>0.53263888888888888</v>
       </c>
     </row>
@@ -7003,7 +6979,7 @@
         <v>45138</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E89" s="25">
         <v>18</v>
@@ -7037,12 +7013,12 @@
         <v>50</v>
       </c>
       <c r="V89" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="W89" s="38">
+        <v>145</v>
+      </c>
+      <c r="W89" s="47">
         <v>0.88402777777777775</v>
       </c>
-      <c r="X89" s="38">
+      <c r="X89" s="47">
         <v>0.98888888888888893</v>
       </c>
     </row>
@@ -7055,7 +7031,7 @@
         <v>45139</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E90" s="25">
         <v>13</v>
@@ -7089,12 +7065,12 @@
         <v>50</v>
       </c>
       <c r="V90" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="W90" s="38">
+        <v>146</v>
+      </c>
+      <c r="W90" s="47">
         <v>0.82847222222222228</v>
       </c>
-      <c r="X90" s="38">
+      <c r="X90" s="47">
         <v>0.91319444444444442</v>
       </c>
     </row>
@@ -7140,13 +7116,13 @@
       <c r="S91" s="26"/>
       <c r="T91" s="26"/>
       <c r="U91" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V91" s="20"/>
-      <c r="W91" s="38">
+      <c r="W91" s="47">
         <v>0.81597222222222221</v>
       </c>
-      <c r="X91" s="38">
+      <c r="X91" s="47">
         <v>0.87638888888888888</v>
       </c>
     </row>
@@ -7159,7 +7135,7 @@
         <v>45142</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E92" s="25">
         <v>8</v>
@@ -7195,15 +7171,15 @@
         <v>59</v>
       </c>
       <c r="V92" s="20"/>
-      <c r="W92" s="38">
+      <c r="W92" s="47">
         <v>0.89513888888888893</v>
       </c>
-      <c r="X92" s="38">
+      <c r="X92" s="47">
         <v>0.98055555555555551</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A93" s="44" t="s">
+      <c r="A93" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B93" s="10" t="s">
@@ -7260,7 +7236,7 @@
         <v>13</v>
       </c>
       <c r="S93" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T93" s="11" t="s">
         <v>73</v>
@@ -7269,12 +7245,12 @@
         <v>50</v>
       </c>
       <c r="V93" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="W93" s="36">
+        <v>147</v>
+      </c>
+      <c r="W93" s="45">
         <v>0.3972222222222222</v>
       </c>
-      <c r="X93" s="36">
+      <c r="X93" s="45">
         <v>0.53402777777777777</v>
       </c>
     </row>
@@ -7321,12 +7297,12 @@
         <v>50</v>
       </c>
       <c r="V94" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="W94" s="38">
+        <v>148</v>
+      </c>
+      <c r="W94" s="47">
         <v>0.81388888888888888</v>
       </c>
-      <c r="X94" s="38">
+      <c r="X94" s="47">
         <v>0.87222222222222223</v>
       </c>
     </row>
@@ -7389,18 +7365,18 @@
         <v>48</v>
       </c>
       <c r="T95" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U95" s="11" t="s">
         <v>50</v>
       </c>
       <c r="V95" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="W95" s="36">
+        <v>149</v>
+      </c>
+      <c r="W95" s="45">
         <v>0.3972222222222222</v>
       </c>
-      <c r="X95" s="36">
+      <c r="X95" s="45">
         <v>0.53541666666666665</v>
       </c>
     </row>
@@ -7453,12 +7429,12 @@
         <v>50</v>
       </c>
       <c r="V96" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="W96" s="37">
+        <v>150</v>
+      </c>
+      <c r="W96" s="46">
         <v>0.81111111111111112</v>
       </c>
-      <c r="X96" s="37">
+      <c r="X96" s="46">
         <v>0.88611111111111107</v>
       </c>
     </row>
@@ -7527,12 +7503,12 @@
         <v>50</v>
       </c>
       <c r="V97" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="W97" s="36">
+        <v>151</v>
+      </c>
+      <c r="W97" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X97" s="36">
+      <c r="X97" s="45">
         <v>0.55486111111111114</v>
       </c>
     </row>
@@ -7581,10 +7557,10 @@
       <c r="T98" s="18"/>
       <c r="U98" s="18"/>
       <c r="V98" s="17"/>
-      <c r="W98" s="37">
+      <c r="W98" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X98" s="37">
+      <c r="X98" s="46">
         <v>0.875</v>
       </c>
     </row>
@@ -7597,7 +7573,7 @@
         <v>45163</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E99" s="15">
         <v>3</v>
@@ -7631,9 +7607,11 @@
       <c r="T99" s="18"/>
       <c r="U99" s="18"/>
       <c r="V99" s="17"/>
-      <c r="W99" s="18"/>
-      <c r="X99" s="18" t="s">
-        <v>205</v>
+      <c r="W99" s="46">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="X99" s="46">
+        <v>0.125</v>
       </c>
     </row>
     <row r="100" spans="1:29" ht="14.25" customHeight="1">
@@ -7698,15 +7676,15 @@
         <v>48</v>
       </c>
       <c r="U100" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="V100" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="V100" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="W100" s="36">
+      <c r="W100" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X100" s="36">
+      <c r="X100" s="45">
         <v>0.5541666666666667</v>
       </c>
     </row>
@@ -7719,7 +7697,7 @@
         <v>45168</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E101" s="25">
         <v>10</v>
@@ -7753,12 +7731,12 @@
         <v>50</v>
       </c>
       <c r="V101" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="W101" s="38">
+        <v>155</v>
+      </c>
+      <c r="W101" s="47">
         <v>0.875</v>
       </c>
-      <c r="X101" s="38">
+      <c r="X101" s="47">
         <v>0.96527777777777779</v>
       </c>
     </row>
@@ -7771,7 +7749,7 @@
         <v>45169</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E102" s="25">
         <v>16</v>
@@ -7805,12 +7783,12 @@
         <v>50</v>
       </c>
       <c r="V102" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="W102" s="38">
+        <v>156</v>
+      </c>
+      <c r="W102" s="47">
         <v>0.81458333333333333</v>
       </c>
-      <c r="X102" s="38">
+      <c r="X102" s="47">
         <v>0.88472222222222219</v>
       </c>
     </row>
@@ -7823,7 +7801,7 @@
         <v>45170</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E103" s="25">
         <v>23</v>
@@ -7857,10 +7835,10 @@
         <v>50</v>
       </c>
       <c r="V103" s="20"/>
-      <c r="W103" s="38">
+      <c r="W103" s="47">
         <v>0.85624999999999996</v>
       </c>
-      <c r="X103" s="38">
+      <c r="X103" s="47">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="Y103" s="27"/>
@@ -7870,7 +7848,7 @@
       <c r="AC103" s="27"/>
     </row>
     <row r="104" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="42" t="s">
         <v>22</v>
       </c>
       <c r="B104" s="10" t="s">
@@ -7927,21 +7905,21 @@
         <v>29</v>
       </c>
       <c r="S104" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T104" s="11" t="s">
         <v>59</v>
       </c>
       <c r="U104" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="V104" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="V104" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="W104" s="36">
+      <c r="W104" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X104" s="36">
+      <c r="X104" s="45">
         <v>0.52638888888888891</v>
       </c>
       <c r="Y104" s="12"/>
@@ -7995,10 +7973,10 @@
         <v>56</v>
       </c>
       <c r="V105" s="20"/>
-      <c r="W105" s="38">
+      <c r="W105" s="47">
         <v>0.8125</v>
       </c>
-      <c r="X105" s="38">
+      <c r="X105" s="47">
         <v>0.87708333333333333</v>
       </c>
       <c r="Y105" s="27"/>
@@ -8016,7 +7994,7 @@
         <v>45177</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E106" s="25">
         <v>6</v>
@@ -8049,13 +8027,13 @@
       <c r="S106" s="26"/>
       <c r="T106" s="26"/>
       <c r="U106" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V106" s="20"/>
-      <c r="W106" s="38">
+      <c r="W106" s="47">
         <v>0.91666666666666663</v>
       </c>
-      <c r="X106" s="38">
+      <c r="X106" s="47">
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="Y106" s="27"/>
@@ -8120,21 +8098,21 @@
         <v>19</v>
       </c>
       <c r="S107" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T107" s="11" t="s">
         <v>49</v>
       </c>
       <c r="U107" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="V107" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="V107" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="W107" s="36">
+      <c r="W107" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X107" s="36">
+      <c r="X107" s="45">
         <v>0.57430555555555551</v>
       </c>
       <c r="Y107" s="12"/>
@@ -8188,10 +8166,10 @@
         <v>56</v>
       </c>
       <c r="V108" s="20"/>
-      <c r="W108" s="37">
+      <c r="W108" s="46">
         <v>0.81111111111111112</v>
       </c>
-      <c r="X108" s="37">
+      <c r="X108" s="46">
         <v>0.88611111111111107</v>
       </c>
       <c r="Y108" s="17"/>
@@ -8199,7 +8177,7 @@
       <c r="AA108" s="17"/>
       <c r="AB108" s="17"/>
       <c r="AC108" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:29" ht="14.25" customHeight="1">
@@ -8248,10 +8226,10 @@
         <v>56</v>
       </c>
       <c r="V109" s="20"/>
-      <c r="W109" s="37">
+      <c r="W109" s="46">
         <v>0.91666666666666663</v>
       </c>
-      <c r="X109" s="37">
+      <c r="X109" s="46">
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="Y109" s="17"/>
@@ -8269,7 +8247,7 @@
         <v>45185</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E110" s="15">
         <v>3</v>
@@ -8305,12 +8283,12 @@
         <v>73</v>
       </c>
       <c r="V110" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="W110" s="37">
+        <v>166</v>
+      </c>
+      <c r="W110" s="46">
         <v>0.60416666666666663</v>
       </c>
-      <c r="X110" s="37">
+      <c r="X110" s="46">
         <v>0.74305555555555558</v>
       </c>
       <c r="Y110" s="17"/>
@@ -8379,18 +8357,18 @@
         <v>48</v>
       </c>
       <c r="T111" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U111" s="11" t="s">
         <v>50</v>
       </c>
       <c r="V111" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="W111" s="36">
+        <v>167</v>
+      </c>
+      <c r="W111" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X111" s="36">
+      <c r="X111" s="45">
         <v>0.54166666666666663</v>
       </c>
       <c r="Y111" s="12"/>
@@ -8444,10 +8422,10 @@
         <v>56</v>
       </c>
       <c r="V112" s="17"/>
-      <c r="W112" s="37">
+      <c r="W112" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X112" s="37">
+      <c r="X112" s="46">
         <v>0.87847222222222221</v>
       </c>
       <c r="Y112" s="17"/>
@@ -8512,21 +8490,21 @@
         <v>12</v>
       </c>
       <c r="S113" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T113" s="11" t="s">
         <v>48</v>
       </c>
       <c r="U113" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="V113" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="V113" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="W113" s="36">
+      <c r="W113" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X113" s="36">
+      <c r="X113" s="45">
         <v>0.53263888888888888</v>
       </c>
       <c r="Y113" s="12"/>
@@ -8544,7 +8522,7 @@
         <v>45196</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E114" s="25">
         <v>9</v>
@@ -8578,12 +8556,12 @@
         <v>50</v>
       </c>
       <c r="V114" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="W114" s="38">
+        <v>171</v>
+      </c>
+      <c r="W114" s="47">
         <v>0.88194444444444442</v>
       </c>
-      <c r="X114" s="38">
+      <c r="X114" s="47">
         <v>0.96597222222222223</v>
       </c>
       <c r="Y114" s="27"/>
@@ -8601,7 +8579,7 @@
         <v>45197</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E115" s="25">
         <v>7</v>
@@ -8633,12 +8611,12 @@
       <c r="T115" s="26"/>
       <c r="U115" s="26"/>
       <c r="V115" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="W115" s="38">
+        <v>173</v>
+      </c>
+      <c r="W115" s="47">
         <v>0.88194444444444442</v>
       </c>
-      <c r="X115" s="38">
+      <c r="X115" s="47">
         <v>0.96319444444444446</v>
       </c>
       <c r="Y115" s="27"/>
@@ -8656,7 +8634,7 @@
         <v>45198</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E116" s="25">
         <v>16</v>
@@ -8688,12 +8666,12 @@
       <c r="T116" s="26"/>
       <c r="U116" s="26"/>
       <c r="V116" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="W116" s="38">
+        <v>175</v>
+      </c>
+      <c r="W116" s="47">
         <v>0.8125</v>
       </c>
-      <c r="X116" s="38">
+      <c r="X116" s="47">
         <v>0.93055555555555558</v>
       </c>
       <c r="Y116" s="27"/>
@@ -8711,28 +8689,28 @@
         <v>45199</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="E117" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F117" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="G117" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="H117" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="I117" s="25" t="s">
-        <v>182</v>
+        <v>176</v>
+      </c>
+      <c r="E117" s="25">
+        <v>50</v>
+      </c>
+      <c r="F117" s="25">
+        <v>52</v>
+      </c>
+      <c r="G117" s="25">
+        <v>10</v>
+      </c>
+      <c r="H117" s="25">
+        <v>132</v>
+      </c>
+      <c r="I117" s="25">
+        <v>142</v>
       </c>
       <c r="J117" s="23"/>
       <c r="K117" s="23"/>
       <c r="L117" s="23"/>
-      <c r="M117" s="23" t="s">
-        <v>183</v>
+      <c r="M117" s="23">
+        <v>30</v>
       </c>
       <c r="N117" s="26"/>
       <c r="O117" s="26"/>
@@ -8742,15 +8720,15 @@
       <c r="S117" s="26"/>
       <c r="T117" s="26"/>
       <c r="U117" s="26" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="V117" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="W117" s="38">
+        <v>178</v>
+      </c>
+      <c r="W117" s="47">
         <v>0.47222222222222221</v>
       </c>
-      <c r="X117" s="38">
+      <c r="X117" s="47">
         <v>0.74305555555555558</v>
       </c>
       <c r="Y117" s="27"/>
@@ -8759,255 +8737,263 @@
       <c r="AB117" s="27"/>
       <c r="AC117" s="27"/>
     </row>
-    <row r="118" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A118" s="44" t="s">
+    <row r="118" spans="1:29" s="40" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A118" s="41"/>
+      <c r="B118" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="34">
+        <v>45199</v>
+      </c>
+      <c r="D118" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E118" s="25">
+        <v>35</v>
+      </c>
+      <c r="F118" s="25">
+        <v>54</v>
+      </c>
+      <c r="G118" s="25">
+        <v>6</v>
+      </c>
+      <c r="H118" s="25">
+        <v>118</v>
+      </c>
+      <c r="I118" s="25">
+        <v>129</v>
+      </c>
+      <c r="J118" s="32"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
+      <c r="M118" s="32">
+        <v>35</v>
+      </c>
+      <c r="N118" s="26"/>
+      <c r="O118" s="26"/>
+      <c r="P118" s="26"/>
+      <c r="Q118" s="27"/>
+      <c r="R118" s="26"/>
+      <c r="S118" s="26"/>
+      <c r="T118" s="26"/>
+      <c r="U118" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="V118" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="W118" s="47">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="X118" s="47">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="Y118" s="27"/>
+      <c r="Z118" s="27"/>
+      <c r="AA118" s="27"/>
+      <c r="AB118" s="27"/>
+      <c r="AC118" s="27"/>
+    </row>
+    <row r="119" spans="1:29" ht="14.25" customHeight="1">
+      <c r="A119" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B119" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C119" s="8">
         <v>45200</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D119" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E119" s="9">
         <v>27</v>
       </c>
-      <c r="F118" s="9">
+      <c r="F119" s="9">
         <v>42</v>
       </c>
-      <c r="G118" s="10">
+      <c r="G119" s="10">
         <v>26</v>
       </c>
-      <c r="H118" s="10">
-        <f>E118+F118</f>
+      <c r="H119" s="10">
+        <f>E119+F119</f>
         <v>69</v>
       </c>
-      <c r="I118" s="7">
-        <f t="shared" ref="I118:I120" si="63">G118+H118</f>
+      <c r="I119" s="7">
+        <f t="shared" ref="I119:I121" si="63">G119+H119</f>
         <v>95</v>
       </c>
-      <c r="J118" s="10">
-        <v>0</v>
-      </c>
-      <c r="K118" s="10">
+      <c r="J119" s="10">
+        <v>0</v>
+      </c>
+      <c r="K119" s="10">
         <v>3</v>
       </c>
-      <c r="L118" s="7">
-        <f>J118+K118</f>
+      <c r="L119" s="7">
+        <f>J119+K119</f>
         <v>3</v>
       </c>
-      <c r="M118" s="10"/>
-      <c r="N118" s="11">
+      <c r="M119" s="10"/>
+      <c r="N119" s="11">
         <v>15</v>
       </c>
-      <c r="O118" s="11">
+      <c r="O119" s="11">
         <v>22</v>
       </c>
-      <c r="P118" s="11">
+      <c r="P119" s="11">
         <v>9</v>
       </c>
-      <c r="Q118" s="12">
-        <f>N118+O118+P118</f>
+      <c r="Q119" s="12">
+        <f>N119+O119+P119</f>
         <v>46</v>
       </c>
-      <c r="R118" s="11">
+      <c r="R119" s="11">
         <v>16</v>
       </c>
-      <c r="S118" s="11" t="s">
+      <c r="S119" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="T118" s="11" t="s">
+      <c r="T119" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="U118" s="11" t="s">
+      <c r="U119" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="V118" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="W118" s="36">
+      <c r="V119" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="W119" s="45">
         <v>0.3972222222222222</v>
       </c>
-      <c r="X118" s="36">
+      <c r="X119" s="45">
         <v>0.52638888888888891</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A119" s="43"/>
-      <c r="B119" s="23" t="s">
+    <row r="120" spans="1:29" ht="14.25" customHeight="1">
+      <c r="A120" s="43"/>
+      <c r="B120" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="24">
+      <c r="C120" s="24">
         <v>45205</v>
       </c>
-      <c r="D119" s="23" t="s">
+      <c r="D120" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E119" s="25">
+      <c r="E120" s="25">
         <v>12</v>
       </c>
-      <c r="F119" s="25">
+      <c r="F120" s="25">
         <v>7</v>
       </c>
-      <c r="G119" s="23">
+      <c r="G120" s="23">
         <v>3</v>
       </c>
-      <c r="H119" s="23">
-        <f>E119+F119+M119</f>
+      <c r="H120" s="23">
+        <f>E120+F120+M120</f>
         <v>26</v>
       </c>
-      <c r="I119" s="32">
+      <c r="I120" s="32">
         <f t="shared" si="63"/>
         <v>29</v>
       </c>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="32"/>
-      <c r="M119" s="23">
+      <c r="J120" s="23"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="32"/>
+      <c r="M120" s="23">
         <v>7</v>
       </c>
-      <c r="N119" s="26"/>
-      <c r="O119" s="26"/>
-      <c r="P119" s="26"/>
-      <c r="Q119" s="27"/>
-      <c r="R119" s="26"/>
-      <c r="S119" s="26"/>
-      <c r="T119" s="26"/>
-      <c r="U119" s="26" t="s">
+      <c r="N120" s="26"/>
+      <c r="O120" s="26"/>
+      <c r="P120" s="26"/>
+      <c r="Q120" s="27"/>
+      <c r="R120" s="26"/>
+      <c r="S120" s="26"/>
+      <c r="T120" s="26"/>
+      <c r="U120" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="V119" s="20"/>
-      <c r="W119" s="38">
+      <c r="V120" s="20"/>
+      <c r="W120" s="47">
         <v>0.8125</v>
       </c>
-      <c r="X119" s="38">
+      <c r="X120" s="47">
         <v>0.87708333333333333</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A120" s="43"/>
-      <c r="B120" s="10" t="s">
+    <row r="121" spans="1:29" ht="14.25" customHeight="1">
+      <c r="A121" s="43"/>
+      <c r="B121" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C121" s="8">
         <v>45207</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D121" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E121" s="9">
         <v>34</v>
       </c>
-      <c r="F120" s="9">
+      <c r="F121" s="9">
         <v>48</v>
       </c>
-      <c r="G120" s="10">
+      <c r="G121" s="10">
         <v>32</v>
       </c>
-      <c r="H120" s="7">
-        <f>E120+F120</f>
+      <c r="H121" s="7">
+        <f>E121+F121</f>
         <v>82</v>
       </c>
-      <c r="I120" s="7">
+      <c r="I121" s="7">
         <f t="shared" si="63"/>
         <v>114</v>
       </c>
-      <c r="J120" s="10">
+      <c r="J121" s="10">
         <v>2</v>
       </c>
-      <c r="K120" s="10">
+      <c r="K121" s="10">
         <v>4</v>
       </c>
-      <c r="L120" s="10">
-        <f>J120+K120</f>
+      <c r="L121" s="10">
+        <f>J121+K121</f>
         <v>6</v>
       </c>
-      <c r="M120" s="10"/>
-      <c r="N120" s="11">
+      <c r="M121" s="10"/>
+      <c r="N121" s="11">
         <v>13</v>
       </c>
-      <c r="O120" s="11">
+      <c r="O121" s="11">
         <v>19</v>
       </c>
-      <c r="P120" s="11">
+      <c r="P121" s="11">
         <v>13</v>
       </c>
-      <c r="Q120" s="12">
-        <f>N120+O120+P120</f>
+      <c r="Q121" s="12">
+        <f>N121+O121+P121</f>
         <v>45</v>
       </c>
-      <c r="R120" s="11">
+      <c r="R121" s="11">
         <v>19</v>
       </c>
-      <c r="S120" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="T120" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="U120" s="11" t="s">
+      <c r="S121" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T121" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="U121" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="V120" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="W120" s="36">
+      <c r="V121" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="W121" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X120" s="36">
+      <c r="X121" s="45">
         <v>0.53333333333333333</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A121" s="43"/>
-      <c r="B121" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="14">
-        <v>45212</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E121" s="15">
-        <v>13</v>
-      </c>
-      <c r="F121" s="15">
-        <v>12</v>
-      </c>
-      <c r="G121" s="15">
-        <v>7</v>
-      </c>
-      <c r="H121" s="15">
-        <f t="shared" ref="H121:H122" si="64">E121+F121+M121</f>
-        <v>31</v>
-      </c>
-      <c r="I121" s="15"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13"/>
-      <c r="M121" s="13">
-        <v>6</v>
-      </c>
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="18"/>
-      <c r="Q121" s="17"/>
-      <c r="R121" s="18"/>
-      <c r="S121" s="18"/>
-      <c r="T121" s="18"/>
-      <c r="U121" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="V121" s="20"/>
-      <c r="W121" s="37">
-        <v>0.8125</v>
-      </c>
-      <c r="X121" s="37">
-        <v>0.87777777777777777</v>
       </c>
     </row>
     <row r="122" spans="1:29" ht="14.25" customHeight="1">
@@ -9019,27 +9005,27 @@
         <v>45212</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E122" s="15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F122" s="15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G122" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H122" s="15">
-        <f t="shared" si="64"/>
-        <v>35</v>
+        <f t="shared" ref="H122:H123" si="64">E122+F122+M122</f>
+        <v>31</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="13"/>
       <c r="K122" s="13"/>
       <c r="L122" s="13"/>
       <c r="M122" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N122" s="18"/>
       <c r="O122" s="18"/>
@@ -9051,140 +9037,137 @@
       <c r="U122" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="V122" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="W122" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="X122" s="37">
-        <v>8.9583333333333334E-2</v>
+      <c r="V122" s="20"/>
+      <c r="W122" s="46">
+        <v>0.8125</v>
+      </c>
+      <c r="X122" s="46">
+        <v>0.87777777777777777</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="14.25" customHeight="1">
       <c r="A123" s="43"/>
-      <c r="B123" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="8">
-        <v>45214</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="9">
-        <v>39</v>
-      </c>
-      <c r="F123" s="9">
-        <v>51</v>
-      </c>
-      <c r="G123" s="9">
-        <v>32</v>
-      </c>
-      <c r="H123" s="9">
-        <f>E123+F123</f>
-        <v>90</v>
-      </c>
-      <c r="I123" s="9">
-        <f t="shared" ref="I123:I127" si="65">G123+H123</f>
-        <v>122</v>
-      </c>
-      <c r="J123" s="10">
-        <v>2</v>
-      </c>
-      <c r="K123" s="10">
-        <v>4</v>
-      </c>
-      <c r="L123" s="10">
-        <f>J123+K123</f>
-        <v>6</v>
-      </c>
-      <c r="M123" s="10"/>
-      <c r="N123" s="11">
-        <v>15</v>
-      </c>
-      <c r="O123" s="11">
-        <v>20</v>
-      </c>
-      <c r="P123" s="11">
-        <v>6</v>
-      </c>
-      <c r="Q123" s="11">
-        <f>N123+O123+P123</f>
-        <v>41</v>
-      </c>
-      <c r="R123" s="11">
-        <v>22</v>
-      </c>
-      <c r="S123" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="T123" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="U123" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V123" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="W123" s="36">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="X123" s="36">
-        <v>0.52986111111111112</v>
+      <c r="B123" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="14">
+        <v>45212</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="15">
+        <v>14</v>
+      </c>
+      <c r="F123" s="15">
+        <v>14</v>
+      </c>
+      <c r="G123" s="15">
+        <v>0</v>
+      </c>
+      <c r="H123" s="15">
+        <f t="shared" si="64"/>
+        <v>35</v>
+      </c>
+      <c r="I123" s="15"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="13">
+        <v>7</v>
+      </c>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="17"/>
+      <c r="R123" s="18"/>
+      <c r="S123" s="18"/>
+      <c r="T123" s="18"/>
+      <c r="U123" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="V123" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="W123" s="46">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="X123" s="46">
+        <v>8.9583333333333334E-2</v>
       </c>
     </row>
     <row r="124" spans="1:29" ht="14.25" customHeight="1">
       <c r="A124" s="43"/>
-      <c r="B124" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="30">
-        <v>45219</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E124" s="15">
-        <v>10</v>
-      </c>
-      <c r="F124" s="15">
-        <v>10</v>
-      </c>
-      <c r="G124" s="15">
+      <c r="B124" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="8">
+        <v>45214</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="9">
+        <v>39</v>
+      </c>
+      <c r="F124" s="9">
+        <v>51</v>
+      </c>
+      <c r="G124" s="9">
+        <v>32</v>
+      </c>
+      <c r="H124" s="9">
+        <f>E124+F124</f>
+        <v>90</v>
+      </c>
+      <c r="I124" s="9">
+        <f t="shared" ref="I124:I128" si="65">G124+H124</f>
+        <v>122</v>
+      </c>
+      <c r="J124" s="10">
         <v>2</v>
       </c>
-      <c r="H124" s="15">
-        <f t="shared" ref="H124:H125" si="66">E124+F124+M124</f>
-        <v>27</v>
-      </c>
-      <c r="I124" s="15">
-        <f t="shared" si="65"/>
-        <v>29</v>
-      </c>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
-      <c r="M124" s="13">
-        <v>7</v>
-      </c>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
-      <c r="R124" s="17"/>
-      <c r="S124" s="17"/>
-      <c r="T124" s="18"/>
-      <c r="U124" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="V124" s="17"/>
-      <c r="W124" s="37">
-        <v>0.81319444444444444</v>
-      </c>
-      <c r="X124" s="37">
-        <v>0.88055555555555554</v>
+      <c r="K124" s="10">
+        <v>4</v>
+      </c>
+      <c r="L124" s="10">
+        <f>J124+K124</f>
+        <v>6</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c r="N124" s="11">
+        <v>15</v>
+      </c>
+      <c r="O124" s="11">
+        <v>20</v>
+      </c>
+      <c r="P124" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q124" s="11">
+        <f>N124+O124+P124</f>
+        <v>41</v>
+      </c>
+      <c r="R124" s="11">
+        <v>22</v>
+      </c>
+      <c r="S124" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="T124" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="U124" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="V124" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="W124" s="45">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="X124" s="45">
+        <v>0.52986111111111112</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="14.25" customHeight="1">
@@ -9196,30 +9179,30 @@
         <v>45219</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="E125" s="15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F125" s="15">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G125" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H125" s="15">
-        <f t="shared" si="66"/>
-        <v>37</v>
+        <f t="shared" ref="H125:H126" si="66">E125+F125+M125</f>
+        <v>27</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="65"/>
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J125" s="13"/>
       <c r="K125" s="13"/>
       <c r="L125" s="13"/>
       <c r="M125" s="13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N125" s="17"/>
       <c r="O125" s="17"/>
@@ -9232,134 +9215,138 @@
         <v>73</v>
       </c>
       <c r="V125" s="17"/>
-      <c r="W125" s="37">
-        <v>0.92222222222222228</v>
-      </c>
-      <c r="X125" s="37">
-        <v>0.12986111111111112</v>
+      <c r="W125" s="46">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="X125" s="46">
+        <v>0.88055555555555554</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="14.25" customHeight="1">
       <c r="A126" s="43"/>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="30">
+        <v>45219</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" s="15">
+        <v>4</v>
+      </c>
+      <c r="F126" s="15">
+        <v>21</v>
+      </c>
+      <c r="G126" s="15">
+        <v>3</v>
+      </c>
+      <c r="H126" s="15">
+        <f t="shared" si="66"/>
+        <v>37</v>
+      </c>
+      <c r="I126" s="15">
+        <f t="shared" si="65"/>
+        <v>40</v>
+      </c>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13">
+        <v>12</v>
+      </c>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
+      <c r="R126" s="17"/>
+      <c r="S126" s="17"/>
+      <c r="T126" s="18"/>
+      <c r="U126" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="V126" s="17"/>
+      <c r="W126" s="46">
+        <v>0.92222222222222228</v>
+      </c>
+      <c r="X126" s="46">
+        <v>0.12986111111111112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" ht="14.25" customHeight="1">
+      <c r="A127" s="43"/>
+      <c r="B127" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="35">
+      <c r="C127" s="35">
         <v>45221</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D127" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E126" s="9">
+      <c r="E127" s="9">
         <v>36</v>
       </c>
-      <c r="F126" s="9">
+      <c r="F127" s="9">
         <v>56</v>
       </c>
-      <c r="G126" s="9">
+      <c r="G127" s="9">
         <v>25</v>
       </c>
-      <c r="H126" s="9">
-        <f>E126+F126</f>
+      <c r="H127" s="9">
+        <f>E127+F127</f>
         <v>92</v>
       </c>
-      <c r="I126" s="9">
+      <c r="I127" s="9">
         <f t="shared" si="65"/>
         <v>117</v>
       </c>
-      <c r="J126" s="10">
+      <c r="J127" s="10">
         <v>2</v>
       </c>
-      <c r="K126" s="10">
+      <c r="K127" s="10">
         <v>8</v>
       </c>
-      <c r="L126" s="10">
-        <f>J126+K126</f>
+      <c r="L127" s="10">
+        <f>J127+K127</f>
         <v>10</v>
       </c>
-      <c r="M126" s="10"/>
-      <c r="N126" s="11">
+      <c r="M127" s="10"/>
+      <c r="N127" s="11">
         <v>11</v>
       </c>
-      <c r="O126" s="11">
+      <c r="O127" s="11">
         <v>17</v>
       </c>
-      <c r="P126" s="11">
+      <c r="P127" s="11">
         <v>6</v>
       </c>
-      <c r="Q126" s="12">
-        <f>N126+O126+P126</f>
+      <c r="Q127" s="12">
+        <f>N127+O127+P127</f>
         <v>34</v>
       </c>
-      <c r="R126" s="11">
+      <c r="R127" s="11">
         <v>16</v>
       </c>
-      <c r="S126" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="T126" s="11" t="s">
+      <c r="S127" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T127" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="U126" s="11" t="s">
+      <c r="U127" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="V126" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="W126" s="36">
+      <c r="V127" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="W127" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X126" s="36">
+      <c r="X127" s="45">
         <v>0.52500000000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A127" s="43"/>
-      <c r="B127" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" s="24">
-        <v>45226</v>
-      </c>
-      <c r="D127" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E127" s="25">
-        <v>11</v>
-      </c>
-      <c r="F127" s="25">
-        <v>4</v>
-      </c>
-      <c r="G127" s="25">
-        <f>E127+F127</f>
-        <v>15</v>
-      </c>
-      <c r="H127" s="25">
-        <v>2</v>
-      </c>
-      <c r="I127" s="25">
-        <f t="shared" si="65"/>
-        <v>17</v>
-      </c>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="23"/>
-      <c r="M127" s="23"/>
-      <c r="N127" s="26"/>
-      <c r="O127" s="26"/>
-      <c r="P127" s="26"/>
-      <c r="Q127" s="27"/>
-      <c r="R127" s="26"/>
-      <c r="S127" s="26"/>
-      <c r="T127" s="26"/>
-      <c r="U127" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="V127" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="W127" s="26"/>
-      <c r="X127" s="26"/>
     </row>
     <row r="128" spans="1:29" ht="14.25" customHeight="1">
       <c r="A128" s="43"/>
@@ -9370,31 +9357,29 @@
         <v>45226</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="E128" s="25">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F128" s="25">
+        <v>4</v>
+      </c>
+      <c r="G128" s="25">
+        <f>E128+F128</f>
+        <v>15</v>
+      </c>
+      <c r="H128" s="25">
         <v>2</v>
       </c>
-      <c r="G128" s="25">
-        <v>0</v>
-      </c>
-      <c r="H128" s="25">
-        <f>E128+F128+M128</f>
-        <v>23</v>
-      </c>
       <c r="I128" s="25">
-        <f>E128+F128+M128</f>
-        <v>23</v>
+        <f t="shared" si="65"/>
+        <v>17</v>
       </c>
       <c r="J128" s="23"/>
       <c r="K128" s="23"/>
       <c r="L128" s="23"/>
-      <c r="M128" s="23">
-        <v>3</v>
-      </c>
+      <c r="M128" s="23"/>
       <c r="N128" s="26"/>
       <c r="O128" s="26"/>
       <c r="P128" s="26"/>
@@ -9403,539 +9388,547 @@
       <c r="S128" s="26"/>
       <c r="T128" s="26"/>
       <c r="U128" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="V128" s="26"/>
-      <c r="W128" s="26"/>
-      <c r="X128" s="26"/>
+        <v>184</v>
+      </c>
+      <c r="V128" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="W128" s="47">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="X128" s="47">
+        <v>0.89583333333333337</v>
+      </c>
     </row>
     <row r="129" spans="1:24" ht="14.25" customHeight="1">
       <c r="A129" s="43"/>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="24">
+        <v>45226</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E129" s="25">
+        <v>18</v>
+      </c>
+      <c r="F129" s="25">
+        <v>2</v>
+      </c>
+      <c r="G129" s="25">
+        <v>0</v>
+      </c>
+      <c r="H129" s="25">
+        <f>E129+F129+M129</f>
+        <v>23</v>
+      </c>
+      <c r="I129" s="25">
+        <f>E129+F129+M129</f>
+        <v>23</v>
+      </c>
+      <c r="J129" s="23"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="23"/>
+      <c r="M129" s="23">
+        <v>3</v>
+      </c>
+      <c r="N129" s="26"/>
+      <c r="O129" s="26"/>
+      <c r="P129" s="26"/>
+      <c r="Q129" s="27"/>
+      <c r="R129" s="26"/>
+      <c r="S129" s="26"/>
+      <c r="T129" s="26"/>
+      <c r="U129" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="V129" s="26"/>
+      <c r="W129" s="47">
+        <v>0.9375</v>
+      </c>
+      <c r="X129" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A130" s="43"/>
+      <c r="B130" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C130" s="8">
         <v>45228</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D130" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E130" s="9">
         <v>31</v>
       </c>
-      <c r="F129" s="9">
+      <c r="F130" s="9">
         <v>39</v>
       </c>
-      <c r="G129" s="9">
+      <c r="G130" s="9">
         <v>14</v>
       </c>
-      <c r="H129" s="9">
-        <f>E129+F129</f>
+      <c r="H130" s="9">
+        <f>E130+F130</f>
         <v>70</v>
       </c>
-      <c r="I129" s="9">
-        <f t="shared" ref="I129:I135" si="67">G129+H129</f>
+      <c r="I130" s="9">
+        <f t="shared" ref="I130:I136" si="67">G130+H130</f>
         <v>84</v>
       </c>
-      <c r="J129" s="10">
+      <c r="J130" s="10">
         <v>1</v>
       </c>
-      <c r="K129" s="10">
+      <c r="K130" s="10">
         <v>1</v>
       </c>
-      <c r="L129" s="10">
-        <f>J129+K129</f>
+      <c r="L130" s="10">
+        <f>J130+K130</f>
         <v>2</v>
       </c>
-      <c r="M129" s="10"/>
-      <c r="N129" s="11">
+      <c r="M130" s="10"/>
+      <c r="N130" s="11">
         <v>15</v>
       </c>
-      <c r="O129" s="11">
+      <c r="O130" s="11">
         <v>16</v>
       </c>
-      <c r="P129" s="11">
+      <c r="P130" s="11">
         <v>6</v>
       </c>
-      <c r="Q129" s="12">
-        <f>N129+O129+P129</f>
+      <c r="Q130" s="12">
+        <f>N130+O130+P130</f>
         <v>37</v>
       </c>
-      <c r="R129" s="11"/>
-      <c r="S129" s="11" t="s">
+      <c r="R130" s="11"/>
+      <c r="S130" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="T129" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="U129" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="V129" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="W129" s="36">
+      <c r="T130" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="U130" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="V130" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="W130" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X129" s="36">
+      <c r="X130" s="45">
         <v>0.53263888888888888</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A130" s="44" t="s">
+    <row r="131" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A131" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B131" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="24">
+      <c r="C131" s="24">
         <v>45233</v>
       </c>
-      <c r="D130" s="23" t="s">
+      <c r="D131" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E130" s="25">
+      <c r="E131" s="25">
         <v>2</v>
       </c>
-      <c r="F130" s="25">
+      <c r="F131" s="25">
         <v>4</v>
       </c>
-      <c r="G130" s="23">
-        <v>0</v>
-      </c>
-      <c r="H130" s="23">
-        <f>E130+F130+M130</f>
+      <c r="G131" s="23">
+        <v>0</v>
+      </c>
+      <c r="H131" s="23">
+        <f>E131+F131+M131</f>
         <v>12</v>
       </c>
-      <c r="I130" s="32">
+      <c r="I131" s="32">
         <f t="shared" si="67"/>
         <v>12</v>
       </c>
-      <c r="J130" s="23"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="32"/>
-      <c r="M130" s="23">
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="32"/>
+      <c r="M131" s="23">
         <v>6</v>
       </c>
-      <c r="N130" s="26"/>
-      <c r="O130" s="26"/>
-      <c r="P130" s="26"/>
-      <c r="Q130" s="27"/>
-      <c r="R130" s="26"/>
-      <c r="S130" s="26"/>
-      <c r="T130" s="26"/>
-      <c r="U130" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="V130" s="20"/>
-      <c r="W130" s="38">
+      <c r="N131" s="26"/>
+      <c r="O131" s="26"/>
+      <c r="P131" s="26"/>
+      <c r="Q131" s="27"/>
+      <c r="R131" s="26"/>
+      <c r="S131" s="26"/>
+      <c r="T131" s="26"/>
+      <c r="U131" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="V131" s="20"/>
+      <c r="W131" s="47">
         <v>0.8125</v>
       </c>
-      <c r="X130" s="38">
+      <c r="X131" s="47">
         <v>0.88402777777777775</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A131" s="43"/>
-      <c r="B131" s="10" t="s">
+    <row r="132" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A132" s="43"/>
+      <c r="B132" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C132" s="8">
         <v>45235</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D132" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E132" s="9">
         <v>33</v>
       </c>
-      <c r="F131" s="9">
+      <c r="F132" s="9">
         <v>39</v>
       </c>
-      <c r="G131" s="10">
+      <c r="G132" s="10">
         <v>26</v>
       </c>
-      <c r="H131" s="7">
-        <f>E131+F131</f>
+      <c r="H132" s="7">
+        <f>E132+F132</f>
         <v>72</v>
       </c>
-      <c r="I131" s="7">
+      <c r="I132" s="7">
         <f t="shared" si="67"/>
         <v>98</v>
       </c>
-      <c r="J131" s="10">
+      <c r="J132" s="10">
         <v>1</v>
       </c>
-      <c r="K131" s="10">
+      <c r="K132" s="10">
         <v>2</v>
       </c>
-      <c r="L131" s="10">
-        <f>J131+K131</f>
+      <c r="L132" s="10">
+        <f>J132+K132</f>
         <v>3</v>
       </c>
-      <c r="M131" s="10"/>
-      <c r="N131" s="11">
+      <c r="M132" s="10"/>
+      <c r="N132" s="11">
         <v>11</v>
       </c>
-      <c r="O131" s="11">
+      <c r="O132" s="11">
         <v>16</v>
       </c>
-      <c r="P131" s="11">
+      <c r="P132" s="11">
         <v>7</v>
       </c>
-      <c r="Q131" s="12">
-        <f>N131+O131+P131</f>
+      <c r="Q132" s="12">
+        <f>N132+O132+P132</f>
         <v>34</v>
       </c>
-      <c r="R131" s="11">
+      <c r="R132" s="11">
         <v>18</v>
       </c>
-      <c r="S131" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="T131" s="11" t="s">
+      <c r="S132" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T132" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="U131" s="11" t="s">
+      <c r="U132" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="V131" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="W131" s="36">
+      <c r="V132" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="W132" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X131" s="36">
+      <c r="X132" s="45">
         <v>0.53888888888888886</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A132" s="43"/>
-      <c r="B132" s="13" t="s">
+    <row r="133" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A133" s="43"/>
+      <c r="B133" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="14">
+      <c r="C133" s="14">
         <v>45240</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="D133" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E132" s="15">
+      <c r="E133" s="15">
         <v>11</v>
       </c>
-      <c r="F132" s="15">
+      <c r="F133" s="15">
         <v>12</v>
       </c>
-      <c r="G132" s="15">
+      <c r="G133" s="15">
         <v>2</v>
       </c>
-      <c r="H132" s="15">
-        <f>E132+F132+M132</f>
+      <c r="H133" s="15">
+        <f>E133+F133+M133</f>
         <v>26</v>
       </c>
-      <c r="I132" s="15">
+      <c r="I133" s="15">
         <f t="shared" si="67"/>
         <v>28</v>
       </c>
-      <c r="J132" s="13">
-        <v>0</v>
-      </c>
-      <c r="K132" s="13"/>
-      <c r="L132" s="13"/>
-      <c r="M132" s="13">
+      <c r="J133" s="13">
+        <v>0</v>
+      </c>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
+      <c r="M133" s="13">
         <v>3</v>
       </c>
-      <c r="N132" s="18"/>
-      <c r="O132" s="18"/>
-      <c r="P132" s="18"/>
-      <c r="Q132" s="17"/>
-      <c r="R132" s="18"/>
-      <c r="S132" s="18"/>
-      <c r="T132" s="18"/>
-      <c r="U132" s="26" t="s">
+      <c r="N133" s="18"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="18"/>
+      <c r="Q133" s="17"/>
+      <c r="R133" s="18"/>
+      <c r="S133" s="18"/>
+      <c r="T133" s="18"/>
+      <c r="U133" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="V132" s="20"/>
-      <c r="W132" s="37">
+      <c r="V133" s="20"/>
+      <c r="W133" s="46">
         <v>0.8125</v>
       </c>
-      <c r="X132" s="37">
+      <c r="X133" s="46">
         <v>0.87777777777777777</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A133" s="43"/>
-      <c r="B133" s="10" t="s">
+    <row r="134" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A134" s="43"/>
+      <c r="B134" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C134" s="8">
         <v>45242</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D134" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E134" s="9">
         <v>37</v>
       </c>
-      <c r="F133" s="9">
+      <c r="F134" s="9">
         <v>58</v>
       </c>
-      <c r="G133" s="9">
+      <c r="G134" s="9">
         <v>28</v>
       </c>
-      <c r="H133" s="9">
-        <f t="shared" ref="H133:H135" si="68">E133+F133</f>
+      <c r="H134" s="9">
+        <f t="shared" ref="H134:H136" si="68">E134+F134</f>
         <v>95</v>
       </c>
-      <c r="I133" s="9">
+      <c r="I134" s="9">
         <f t="shared" si="67"/>
         <v>123</v>
       </c>
-      <c r="J133" s="10">
+      <c r="J134" s="10">
         <v>3</v>
       </c>
-      <c r="K133" s="10">
+      <c r="K134" s="10">
         <v>2</v>
       </c>
-      <c r="L133" s="10">
-        <f>J133+K133</f>
+      <c r="L134" s="10">
+        <f>J134+K134</f>
         <v>5</v>
       </c>
-      <c r="M133" s="10"/>
-      <c r="N133" s="11">
+      <c r="M134" s="10"/>
+      <c r="N134" s="11">
         <v>17</v>
       </c>
-      <c r="O133" s="11">
+      <c r="O134" s="11">
         <v>30</v>
       </c>
-      <c r="P133" s="11">
+      <c r="P134" s="11">
         <v>10</v>
       </c>
-      <c r="Q133" s="11">
-        <f>N133+O133+P133</f>
+      <c r="Q134" s="11">
+        <f>N134+O134+P134</f>
         <v>57</v>
       </c>
-      <c r="R133" s="11">
+      <c r="R134" s="11">
         <v>20</v>
       </c>
-      <c r="S133" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="T133" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="U133" s="11" t="s">
+      <c r="S134" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="T134" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="U134" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="V133" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="W133" s="36">
+      <c r="V134" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="W134" s="45">
         <v>0.3972222222222222</v>
       </c>
-      <c r="X133" s="36">
+      <c r="X134" s="45">
         <v>0.51944444444444449</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A134" s="43"/>
-      <c r="B134" s="13" t="s">
+    <row r="135" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A135" s="43"/>
+      <c r="B135" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="30">
+      <c r="C135" s="30">
         <v>45247</v>
       </c>
-      <c r="D134" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E134" s="15">
+      <c r="D135" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E135" s="15">
         <v>13</v>
       </c>
-      <c r="F134" s="15">
+      <c r="F135" s="15">
         <v>19</v>
       </c>
-      <c r="G134" s="15">
+      <c r="G135" s="15">
         <v>3</v>
       </c>
-      <c r="H134" s="15">
+      <c r="H135" s="15">
         <f t="shared" si="68"/>
         <v>32</v>
       </c>
-      <c r="I134" s="15">
+      <c r="I135" s="15">
         <f t="shared" si="67"/>
         <v>35</v>
       </c>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="13"/>
-      <c r="M134" s="13"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
-      <c r="R134" s="17"/>
-      <c r="S134" s="17"/>
-      <c r="T134" s="18"/>
-      <c r="U134" s="18"/>
-      <c r="V134" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="W134" s="37">
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
+      <c r="R135" s="17"/>
+      <c r="S135" s="17"/>
+      <c r="T135" s="18"/>
+      <c r="U135" s="18"/>
+      <c r="V135" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="W135" s="46">
         <v>0.81805555555555554</v>
       </c>
-      <c r="X134" s="37">
+      <c r="X135" s="46">
         <v>0.88541666666666663</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A135" s="43"/>
-      <c r="B135" s="10" t="s">
+    <row r="136" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A136" s="43"/>
+      <c r="B136" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="35">
+      <c r="C136" s="35">
         <v>45249</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D136" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E136" s="9">
         <v>45</v>
       </c>
-      <c r="F135" s="9">
+      <c r="F136" s="9">
         <v>60</v>
       </c>
-      <c r="G135" s="9">
+      <c r="G136" s="9">
         <v>37</v>
       </c>
-      <c r="H135" s="9">
+      <c r="H136" s="9">
         <f t="shared" si="68"/>
         <v>105</v>
       </c>
-      <c r="I135" s="9">
+      <c r="I136" s="9">
         <f t="shared" si="67"/>
         <v>142</v>
       </c>
-      <c r="J135" s="10">
+      <c r="J136" s="10">
         <v>5</v>
       </c>
-      <c r="K135" s="10">
+      <c r="K136" s="10">
         <v>3</v>
       </c>
-      <c r="L135" s="10">
-        <f>J135+K135</f>
+      <c r="L136" s="10">
+        <f>J136+K136</f>
         <v>8</v>
       </c>
-      <c r="M135" s="10"/>
-      <c r="N135" s="11">
+      <c r="M136" s="10"/>
+      <c r="N136" s="11">
         <v>17</v>
       </c>
-      <c r="O135" s="11">
+      <c r="O136" s="11">
         <v>20</v>
       </c>
-      <c r="P135" s="11">
+      <c r="P136" s="11">
         <v>8</v>
       </c>
-      <c r="Q135" s="12">
-        <f>N135+O135+P135</f>
+      <c r="Q136" s="12">
+        <f>N136+O136+P136</f>
         <v>45</v>
       </c>
-      <c r="R135" s="11">
+      <c r="R136" s="11">
         <v>25</v>
       </c>
-      <c r="S135" s="11" t="s">
+      <c r="S136" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="T135" s="11" t="s">
+      <c r="T136" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="U135" s="11" t="s">
+      <c r="U136" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="V135" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="W135" s="36">
+      <c r="V136" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="W136" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X135" s="36">
+      <c r="X136" s="45">
         <v>0.5493055555555556</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A136" s="43"/>
-      <c r="B136" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="24">
-        <v>45250</v>
-      </c>
-      <c r="D136" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="E136" s="25">
-        <v>7</v>
-      </c>
-      <c r="F136" s="25">
-        <v>6</v>
-      </c>
-      <c r="G136" s="25">
-        <v>0</v>
-      </c>
-      <c r="H136" s="25">
-        <v>13</v>
-      </c>
-      <c r="I136" s="25">
-        <v>13</v>
-      </c>
-      <c r="J136" s="23"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="23"/>
-      <c r="M136" s="23"/>
-      <c r="N136" s="26"/>
-      <c r="O136" s="26"/>
-      <c r="P136" s="26"/>
-      <c r="Q136" s="27"/>
-      <c r="R136" s="26"/>
-      <c r="S136" s="26"/>
-      <c r="T136" s="26"/>
-      <c r="U136" s="26"/>
-      <c r="V136" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="W136" s="38">
-        <v>0.81597222222222221</v>
-      </c>
-      <c r="X136" s="38">
-        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="14.25" customHeight="1">
       <c r="A137" s="43"/>
       <c r="B137" s="23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C137" s="24">
-        <v>45251</v>
+        <v>45250</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E137" s="25">
         <v>7</v>
       </c>
       <c r="F137" s="25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G137" s="25">
         <v>0</v>
       </c>
       <c r="H137" s="25">
-        <f t="shared" ref="H137:H144" si="69">E137+F137</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I137" s="25">
-        <f t="shared" ref="I137:I140" si="70">H137+G137</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J137" s="23"/>
       <c r="K137" s="23"/>
@@ -9950,42 +9943,42 @@
       <c r="T137" s="26"/>
       <c r="U137" s="26"/>
       <c r="V137" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="W137" s="38">
+        <v>198</v>
+      </c>
+      <c r="W137" s="47">
         <v>0.81597222222222221</v>
       </c>
-      <c r="X137" s="38">
-        <v>0.88055555555555554</v>
+      <c r="X137" s="47">
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="14.25" customHeight="1">
       <c r="A138" s="43"/>
       <c r="B138" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C138" s="24">
-        <v>45252</v>
+        <v>45251</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E138" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F138" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G138" s="25">
         <v>0</v>
       </c>
       <c r="H138" s="25">
-        <f t="shared" si="69"/>
-        <v>15</v>
+        <f t="shared" ref="H138:H145" si="69">E138+F138</f>
+        <v>11</v>
       </c>
       <c r="I138" s="25">
-        <f t="shared" si="70"/>
-        <v>15</v>
+        <f t="shared" ref="I138:I141" si="70">H138+G138</f>
+        <v>11</v>
       </c>
       <c r="J138" s="23"/>
       <c r="K138" s="23"/>
@@ -10000,42 +9993,42 @@
       <c r="T138" s="26"/>
       <c r="U138" s="26"/>
       <c r="V138" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="W138" s="38">
+        <v>200</v>
+      </c>
+      <c r="W138" s="47">
         <v>0.81597222222222221</v>
       </c>
-      <c r="X138" s="38">
-        <v>0.88263888888888886</v>
+      <c r="X138" s="47">
+        <v>0.88055555555555554</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="14.25" customHeight="1">
       <c r="A139" s="43"/>
       <c r="B139" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C139" s="24">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E139" s="25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F139" s="25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G139" s="25">
         <v>0</v>
       </c>
       <c r="H139" s="25">
         <f t="shared" si="69"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I139" s="25">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J139" s="23"/>
       <c r="K139" s="23"/>
@@ -10049,37 +10042,43 @@
       <c r="S139" s="26"/>
       <c r="T139" s="26"/>
       <c r="U139" s="26"/>
-      <c r="V139" s="26"/>
-      <c r="W139" s="26"/>
-      <c r="X139" s="26"/>
+      <c r="V139" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="W139" s="47">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="X139" s="47">
+        <v>0.88263888888888886</v>
+      </c>
     </row>
     <row r="140" spans="1:24" ht="14.25" customHeight="1">
       <c r="A140" s="43"/>
       <c r="B140" s="23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C140" s="24">
-        <v>45254</v>
+        <v>45253</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E140" s="25">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F140" s="25">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G140" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" s="25">
         <f t="shared" si="69"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I140" s="25">
         <f t="shared" si="70"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
@@ -10094,126 +10093,140 @@
       <c r="T140" s="26"/>
       <c r="U140" s="26"/>
       <c r="V140" s="26"/>
-      <c r="W140" s="26"/>
-      <c r="X140" s="26"/>
+      <c r="W140" s="47">
+        <v>0.8125</v>
+      </c>
+      <c r="X140" s="47">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="141" spans="1:24" ht="14.25" customHeight="1">
       <c r="A141" s="43"/>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="24">
+        <v>45254</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E141" s="25">
+        <v>14</v>
+      </c>
+      <c r="F141" s="25">
+        <v>15</v>
+      </c>
+      <c r="G141" s="25">
+        <v>1</v>
+      </c>
+      <c r="H141" s="25">
+        <f t="shared" si="69"/>
+        <v>29</v>
+      </c>
+      <c r="I141" s="25">
+        <f t="shared" si="70"/>
+        <v>30</v>
+      </c>
+      <c r="J141" s="23"/>
+      <c r="K141" s="23"/>
+      <c r="L141" s="23"/>
+      <c r="M141" s="23"/>
+      <c r="N141" s="26"/>
+      <c r="O141" s="26"/>
+      <c r="P141" s="26"/>
+      <c r="Q141" s="27"/>
+      <c r="R141" s="26"/>
+      <c r="S141" s="26"/>
+      <c r="T141" s="26"/>
+      <c r="U141" s="26"/>
+      <c r="V141" s="26"/>
+      <c r="W141" s="49">
+        <v>0.8125</v>
+      </c>
+      <c r="X141" s="47">
+        <v>0.91666666666666696</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A142" s="43"/>
+      <c r="B142" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C142" s="8">
         <v>45256</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D142" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E141" s="9">
+      <c r="E142" s="9">
         <v>43</v>
       </c>
-      <c r="F141" s="9">
+      <c r="F142" s="9">
         <v>57</v>
       </c>
-      <c r="G141" s="9">
+      <c r="G142" s="9">
         <v>30</v>
       </c>
-      <c r="H141" s="9">
+      <c r="H142" s="9">
         <f t="shared" si="69"/>
         <v>100</v>
       </c>
-      <c r="I141" s="9">
-        <f>G141+H141</f>
+      <c r="I142" s="9">
+        <f>G142+H142</f>
         <v>130</v>
       </c>
-      <c r="J141" s="10">
+      <c r="J142" s="10">
         <v>3</v>
       </c>
-      <c r="K141" s="10">
+      <c r="K142" s="10">
         <v>5</v>
       </c>
-      <c r="L141" s="10">
-        <f>J141+K141</f>
+      <c r="L142" s="10">
+        <f>J142+K142</f>
         <v>8</v>
       </c>
-      <c r="M141" s="10"/>
-      <c r="N141" s="11">
+      <c r="M142" s="10"/>
+      <c r="N142" s="11">
         <v>17</v>
       </c>
-      <c r="O141" s="11">
+      <c r="O142" s="11">
         <v>29</v>
       </c>
-      <c r="P141" s="11">
+      <c r="P142" s="11">
         <v>9</v>
       </c>
-      <c r="Q141" s="12">
-        <f>N141+O141+P141</f>
+      <c r="Q142" s="12">
+        <f>N142+O142+P142</f>
         <v>55</v>
       </c>
-      <c r="R141" s="11">
+      <c r="R142" s="11">
         <v>23</v>
       </c>
-      <c r="S141" s="11"/>
-      <c r="T141" s="11"/>
-      <c r="U141" s="11"/>
-      <c r="V141" s="11"/>
-      <c r="W141" s="11"/>
-      <c r="X141" s="11"/>
-    </row>
-    <row r="142" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A142" s="43"/>
-      <c r="B142" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C142" s="24">
-        <v>45257</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="E142" s="25">
-        <v>4</v>
-      </c>
-      <c r="F142" s="25">
-        <v>2</v>
-      </c>
-      <c r="G142" s="25"/>
-      <c r="H142" s="25">
-        <f t="shared" si="69"/>
-        <v>6</v>
-      </c>
-      <c r="I142" s="25">
-        <f>E142+F142</f>
-        <v>6</v>
-      </c>
-      <c r="J142" s="23"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="23"/>
-      <c r="M142" s="23"/>
-      <c r="N142" s="26"/>
-      <c r="O142" s="26"/>
-      <c r="P142" s="26"/>
-      <c r="Q142" s="27"/>
-      <c r="R142" s="26"/>
-      <c r="S142" s="26"/>
-      <c r="T142" s="26"/>
-      <c r="U142" s="26"/>
-      <c r="V142" s="26"/>
-      <c r="W142" s="26"/>
-      <c r="X142" s="26"/>
+      <c r="S142" s="11"/>
+      <c r="T142" s="11"/>
+      <c r="U142" s="11"/>
+      <c r="V142" s="11"/>
+      <c r="W142" s="49">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="X142" s="47">
+        <v>0.52083333333333337</v>
+      </c>
     </row>
     <row r="143" spans="1:24" ht="14.25" customHeight="1">
       <c r="A143" s="43"/>
       <c r="B143" s="23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C143" s="24">
-        <v>45258</v>
+        <v>45257</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E143" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F143" s="25">
         <v>2</v>
@@ -10221,9 +10234,12 @@
       <c r="G143" s="25"/>
       <c r="H143" s="25">
         <f t="shared" si="69"/>
-        <v>9</v>
-      </c>
-      <c r="I143" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="I143" s="25">
+        <f>E143+F143</f>
+        <v>6</v>
+      </c>
       <c r="J143" s="23"/>
       <c r="K143" s="23"/>
       <c r="L143" s="23"/>
@@ -10237,30 +10253,34 @@
       <c r="T143" s="26"/>
       <c r="U143" s="26"/>
       <c r="V143" s="26"/>
-      <c r="W143" s="26"/>
-      <c r="X143" s="26"/>
+      <c r="W143" s="49">
+        <v>0.8125</v>
+      </c>
+      <c r="X143" s="47">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:24" ht="14.25" customHeight="1">
       <c r="A144" s="43"/>
       <c r="B144" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C144" s="24">
-        <v>45259</v>
+        <v>45258</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E144" s="25">
+        <v>7</v>
+      </c>
+      <c r="F144" s="25">
         <v>2</v>
-      </c>
-      <c r="F144" s="25">
-        <v>4</v>
       </c>
       <c r="G144" s="25"/>
       <c r="H144" s="25">
         <f t="shared" si="69"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I144" s="25"/>
       <c r="J144" s="23"/>
@@ -10276,29 +10296,34 @@
       <c r="T144" s="26"/>
       <c r="U144" s="26"/>
       <c r="V144" s="26"/>
-      <c r="W144" s="26"/>
-      <c r="X144" s="26"/>
+      <c r="W144" s="49">
+        <v>0.8125</v>
+      </c>
+      <c r="X144" s="47">
+        <v>1.0416666666666701</v>
+      </c>
     </row>
     <row r="145" spans="1:24" ht="14.25" customHeight="1">
       <c r="A145" s="43"/>
       <c r="B145" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C145" s="24">
-        <v>45260</v>
+        <v>45259</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E145" s="25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F145" s="25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G145" s="25"/>
       <c r="H145" s="25">
-        <v>12</v>
+        <f t="shared" si="69"/>
+        <v>6</v>
       </c>
       <c r="I145" s="25"/>
       <c r="J145" s="23"/>
@@ -10314,40 +10339,38 @@
       <c r="T145" s="26"/>
       <c r="U145" s="26"/>
       <c r="V145" s="26"/>
-      <c r="W145" s="26"/>
-      <c r="X145" s="26"/>
+      <c r="W145" s="49">
+        <v>0.8125</v>
+      </c>
+      <c r="X145" s="47">
+        <v>1.0833333333333299</v>
+      </c>
     </row>
     <row r="146" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A146" s="6"/>
+      <c r="A146" s="43"/>
       <c r="B146" s="23" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="C146" s="24">
-        <v>45261</v>
+        <v>45260</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E146" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F146" s="25">
-        <v>7</v>
-      </c>
-      <c r="G146" s="23">
-        <v>1</v>
-      </c>
-      <c r="H146" s="23">
-        <f t="shared" ref="H146:H155" si="71">E146+F146</f>
-        <v>14</v>
-      </c>
-      <c r="I146" s="32">
-        <f t="shared" ref="I146:I161" si="72">G146+H146</f>
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25">
+        <v>12</v>
+      </c>
+      <c r="I146" s="25"/>
       <c r="J146" s="23"/>
       <c r="K146" s="23"/>
-      <c r="L146" s="32"/>
+      <c r="L146" s="23"/>
       <c r="M146" s="23"/>
       <c r="N146" s="26"/>
       <c r="O146" s="26"/>
@@ -10356,44 +10379,42 @@
       <c r="R146" s="26"/>
       <c r="S146" s="26"/>
       <c r="T146" s="26"/>
-      <c r="U146" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="V146" s="21"/>
-      <c r="W146" s="38">
-        <v>0.8208333333333333</v>
-      </c>
-      <c r="X146" s="38">
-        <v>0.89930555555555558</v>
+      <c r="U146" s="26"/>
+      <c r="V146" s="26"/>
+      <c r="W146" s="49">
+        <v>0.8125</v>
+      </c>
+      <c r="X146" s="47">
+        <v>1.125</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="14.25" customHeight="1">
       <c r="A147" s="6"/>
       <c r="B147" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C147" s="24">
+        <v>45261</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E147" s="25">
         <v>7</v>
       </c>
-      <c r="C147" s="24">
-        <v>45262</v>
-      </c>
-      <c r="D147" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E147" s="25">
-        <v>33</v>
-      </c>
       <c r="F147" s="25">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="G147" s="23">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H147" s="23">
-        <f t="shared" si="71"/>
-        <v>81</v>
+        <f t="shared" ref="H147:H156" si="71">E147+F147</f>
+        <v>14</v>
       </c>
       <c r="I147" s="32">
-        <f t="shared" si="72"/>
-        <v>97</v>
+        <f t="shared" ref="I147:I162" si="72">G147+H147</f>
+        <v>15</v>
       </c>
       <c r="J147" s="23"/>
       <c r="K147" s="23"/>
@@ -10404,170 +10425,172 @@
       <c r="P147" s="26"/>
       <c r="Q147" s="27"/>
       <c r="R147" s="26"/>
-      <c r="S147" s="26" t="s">
-        <v>73</v>
-      </c>
+      <c r="S147" s="26"/>
       <c r="T147" s="26"/>
       <c r="U147" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="V147" s="21"/>
+      <c r="W147" s="47">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="X147" s="47">
+        <v>0.89930555555555558</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A148" s="6"/>
+      <c r="B148" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="24">
+        <v>45262</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E148" s="25">
+        <v>33</v>
+      </c>
+      <c r="F148" s="25">
+        <v>48</v>
+      </c>
+      <c r="G148" s="23">
+        <v>16</v>
+      </c>
+      <c r="H148" s="23">
+        <f t="shared" si="71"/>
+        <v>81</v>
+      </c>
+      <c r="I148" s="32">
+        <f t="shared" si="72"/>
+        <v>97</v>
+      </c>
+      <c r="J148" s="23"/>
+      <c r="K148" s="23"/>
+      <c r="L148" s="32"/>
+      <c r="M148" s="23"/>
+      <c r="N148" s="26"/>
+      <c r="O148" s="26"/>
+      <c r="P148" s="26"/>
+      <c r="Q148" s="27"/>
+      <c r="R148" s="26"/>
+      <c r="S148" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="T148" s="26"/>
+      <c r="U148" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="V147" s="21"/>
-      <c r="W147" s="38">
+      <c r="V148" s="21"/>
+      <c r="W148" s="47">
         <v>0.41805555555555557</v>
       </c>
-      <c r="X147" s="38">
+      <c r="X148" s="47">
         <v>0.53611111111111109</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A148" s="44" t="s">
+    <row r="149" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A149" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B149" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C149" s="8">
         <v>45263</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D149" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E148" s="9">
+      <c r="E149" s="9">
         <v>38</v>
       </c>
-      <c r="F148" s="9">
+      <c r="F149" s="9">
         <v>52</v>
       </c>
-      <c r="G148" s="10">
+      <c r="G149" s="10">
         <v>25</v>
       </c>
-      <c r="H148" s="10">
+      <c r="H149" s="10">
         <f t="shared" si="71"/>
         <v>90</v>
       </c>
-      <c r="I148" s="7">
+      <c r="I149" s="7">
         <f t="shared" si="72"/>
         <v>115</v>
       </c>
-      <c r="J148" s="10">
+      <c r="J149" s="10">
         <v>2</v>
       </c>
-      <c r="K148" s="10">
-        <v>0</v>
-      </c>
-      <c r="L148" s="7">
-        <f>J148+K148</f>
+      <c r="K149" s="10">
+        <v>0</v>
+      </c>
+      <c r="L149" s="7">
+        <f>J149+K149</f>
         <v>2</v>
       </c>
-      <c r="M148" s="10"/>
-      <c r="N148" s="11">
+      <c r="M149" s="10"/>
+      <c r="N149" s="11">
         <v>15</v>
       </c>
-      <c r="O148" s="11">
+      <c r="O149" s="11">
         <v>26</v>
       </c>
-      <c r="P148" s="11">
+      <c r="P149" s="11">
         <v>7</v>
       </c>
-      <c r="Q148" s="12">
-        <f>N148+O148+P148</f>
+      <c r="Q149" s="12">
+        <f>N149+O149+P149</f>
         <v>48</v>
       </c>
-      <c r="R148" s="11">
+      <c r="R149" s="11">
         <v>17</v>
       </c>
-      <c r="S148" s="11" t="s">
+      <c r="S149" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="T148" s="11" t="s">
+      <c r="T149" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="U148" s="11" t="s">
+      <c r="U149" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="V148" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="W148" s="36">
+      <c r="V149" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="W149" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X148" s="36">
+      <c r="X149" s="45">
         <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="149" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A149" s="43"/>
-      <c r="B149" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C149" s="24">
-        <v>45264</v>
-      </c>
-      <c r="D149" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="E149" s="25">
-        <v>5</v>
-      </c>
-      <c r="F149" s="25">
-        <v>7</v>
-      </c>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23">
-        <f t="shared" si="71"/>
-        <v>12</v>
-      </c>
-      <c r="I149" s="32">
-        <f t="shared" si="72"/>
-        <v>12</v>
-      </c>
-      <c r="J149" s="23"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="32"/>
-      <c r="M149" s="23"/>
-      <c r="N149" s="26"/>
-      <c r="O149" s="26"/>
-      <c r="P149" s="26"/>
-      <c r="Q149" s="27"/>
-      <c r="R149" s="26"/>
-      <c r="S149" s="26"/>
-      <c r="T149" s="26"/>
-      <c r="U149" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="V149" s="20"/>
-      <c r="W149" s="38">
-        <v>0.8125</v>
-      </c>
-      <c r="X149" s="38">
-        <v>0.88194444444444442</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="14.25" customHeight="1">
       <c r="A150" s="43"/>
       <c r="B150" s="23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C150" s="24">
-        <v>45265</v>
+        <v>45264</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E150" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F150" s="25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G150" s="23"/>
       <c r="H150" s="23">
         <f t="shared" si="71"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I150" s="32">
         <f t="shared" si="72"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J150" s="23"/>
       <c r="K150" s="23"/>
@@ -10584,38 +10607,38 @@
         <v>75</v>
       </c>
       <c r="V150" s="20"/>
-      <c r="W150" s="38">
-        <v>0.81527777777777777</v>
-      </c>
-      <c r="X150" s="38">
-        <v>0.88055555555555554</v>
+      <c r="W150" s="47">
+        <v>0.8125</v>
+      </c>
+      <c r="X150" s="47">
+        <v>0.88194444444444442</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="14.25" customHeight="1">
       <c r="A151" s="43"/>
       <c r="B151" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C151" s="24">
-        <v>45266</v>
+        <v>45265</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E151" s="25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F151" s="25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G151" s="23"/>
       <c r="H151" s="23">
         <f t="shared" si="71"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I151" s="32">
         <f t="shared" si="72"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J151" s="23"/>
       <c r="K151" s="23"/>
@@ -10632,40 +10655,38 @@
         <v>75</v>
       </c>
       <c r="V151" s="20"/>
-      <c r="W151" s="38">
-        <v>0.87708333333333333</v>
-      </c>
-      <c r="X151" s="38">
-        <v>0.96875</v>
+      <c r="W151" s="47">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="X151" s="47">
+        <v>0.88055555555555554</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="14.25" customHeight="1">
       <c r="A152" s="43"/>
       <c r="B152" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C152" s="24">
-        <v>45267</v>
+        <v>45266</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E152" s="25">
         <v>9</v>
       </c>
       <c r="F152" s="25">
-        <v>10</v>
-      </c>
-      <c r="G152" s="23">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G152" s="23"/>
       <c r="H152" s="23">
         <f t="shared" si="71"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I152" s="32">
         <f t="shared" si="72"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J152" s="23"/>
       <c r="K152" s="23"/>
@@ -10682,40 +10703,40 @@
         <v>75</v>
       </c>
       <c r="V152" s="20"/>
-      <c r="W152" s="38">
+      <c r="W152" s="47">
         <v>0.87708333333333333</v>
       </c>
-      <c r="X152" s="38">
-        <v>0.9604166666666667</v>
+      <c r="X152" s="47">
+        <v>0.96875</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="14.25" customHeight="1">
       <c r="A153" s="43"/>
       <c r="B153" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" s="24">
+        <v>45267</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E153" s="25">
+        <v>9</v>
+      </c>
+      <c r="F153" s="25">
         <v>10</v>
       </c>
-      <c r="C153" s="24">
-        <v>45268</v>
-      </c>
-      <c r="D153" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="E153" s="25">
-        <v>25</v>
-      </c>
-      <c r="F153" s="25">
-        <v>28</v>
-      </c>
       <c r="G153" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H153" s="23">
         <f t="shared" si="71"/>
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="I153" s="32">
         <f t="shared" si="72"/>
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J153" s="23"/>
       <c r="K153" s="23"/>
@@ -10732,263 +10753,239 @@
         <v>75</v>
       </c>
       <c r="V153" s="20"/>
-      <c r="W153" s="38">
-        <v>0.84861111111111109</v>
-      </c>
-      <c r="X153" s="38">
-        <v>6.25E-2</v>
+      <c r="W153" s="47">
+        <v>0.87708333333333333</v>
+      </c>
+      <c r="X153" s="47">
+        <v>0.9604166666666667</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="14.25" customHeight="1">
       <c r="A154" s="43"/>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="24">
+        <v>45268</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E154" s="25">
+        <v>25</v>
+      </c>
+      <c r="F154" s="25">
+        <v>28</v>
+      </c>
+      <c r="G154" s="23">
+        <v>5</v>
+      </c>
+      <c r="H154" s="23">
+        <f t="shared" si="71"/>
+        <v>53</v>
+      </c>
+      <c r="I154" s="32">
+        <f t="shared" si="72"/>
+        <v>58</v>
+      </c>
+      <c r="J154" s="23"/>
+      <c r="K154" s="23"/>
+      <c r="L154" s="32"/>
+      <c r="M154" s="23"/>
+      <c r="N154" s="26"/>
+      <c r="O154" s="26"/>
+      <c r="P154" s="26"/>
+      <c r="Q154" s="27"/>
+      <c r="R154" s="26"/>
+      <c r="S154" s="26"/>
+      <c r="T154" s="26"/>
+      <c r="U154" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="V154" s="20"/>
+      <c r="W154" s="47">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="X154" s="47">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A155" s="43"/>
+      <c r="B155" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="8">
+      <c r="C155" s="8">
         <v>45270</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D155" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E154" s="9">
+      <c r="E155" s="9">
         <v>43</v>
       </c>
-      <c r="F154" s="9">
+      <c r="F155" s="9">
         <v>58</v>
       </c>
-      <c r="G154" s="10">
+      <c r="G155" s="10">
         <v>34</v>
       </c>
-      <c r="H154" s="7">
+      <c r="H155" s="7">
         <f t="shared" si="71"/>
         <v>101</v>
       </c>
-      <c r="I154" s="7">
+      <c r="I155" s="7">
         <f t="shared" si="72"/>
         <v>135</v>
       </c>
-      <c r="J154" s="10">
+      <c r="J155" s="10">
         <v>2</v>
       </c>
-      <c r="K154" s="10">
+      <c r="K155" s="10">
         <v>4</v>
       </c>
-      <c r="L154" s="10">
-        <f>J154+K154</f>
+      <c r="L155" s="10">
+        <f>J155+K155</f>
         <v>6</v>
       </c>
-      <c r="M154" s="10"/>
-      <c r="N154" s="11">
+      <c r="M155" s="10"/>
+      <c r="N155" s="11">
         <v>9</v>
       </c>
-      <c r="O154" s="11">
+      <c r="O155" s="11">
         <v>15</v>
       </c>
-      <c r="P154" s="11">
+      <c r="P155" s="11">
         <v>5</v>
       </c>
-      <c r="Q154" s="12">
-        <f>N154+O154+P154</f>
+      <c r="Q155" s="12">
+        <f>N155+O155+P155</f>
         <v>29</v>
       </c>
-      <c r="R154" s="11">
+      <c r="R155" s="11">
         <v>23</v>
       </c>
-      <c r="S154" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="T154" s="11" t="s">
+      <c r="S155" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="T155" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="U154" s="11" t="s">
+      <c r="U155" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="V154" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="W154" s="36">
+      <c r="V155" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="W155" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X154" s="36">
+      <c r="X155" s="45">
         <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="155" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A155" s="43"/>
-      <c r="B155" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C155" s="14">
-        <v>45275</v>
-      </c>
-      <c r="D155" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E155" s="15">
-        <v>12</v>
-      </c>
-      <c r="F155" s="15">
-        <v>16</v>
-      </c>
-      <c r="G155" s="15">
-        <v>2</v>
-      </c>
-      <c r="H155" s="15">
-        <f t="shared" si="71"/>
-        <v>28</v>
-      </c>
-      <c r="I155" s="15">
-        <f t="shared" si="72"/>
-        <v>30</v>
-      </c>
-      <c r="J155" s="13"/>
-      <c r="K155" s="13"/>
-      <c r="L155" s="13"/>
-      <c r="M155" s="13">
-        <v>9</v>
-      </c>
-      <c r="N155" s="18"/>
-      <c r="O155" s="18"/>
-      <c r="P155" s="18"/>
-      <c r="Q155" s="17"/>
-      <c r="R155" s="18"/>
-      <c r="S155" s="18"/>
-      <c r="T155" s="18"/>
-      <c r="U155" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="V155" s="20"/>
-      <c r="W155" s="37">
-        <v>0.81319444444444444</v>
-      </c>
-      <c r="X155" s="37">
-        <v>0.88680555555555551</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="14.25" customHeight="1">
       <c r="A156" s="43"/>
       <c r="B156" s="13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C156" s="14">
-        <v>45276</v>
+        <v>45275</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E156" s="15">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F156" s="15">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G156" s="15">
         <v>2</v>
       </c>
       <c r="H156" s="15">
-        <f>E156+F156+M156</f>
-        <v>60</v>
+        <f t="shared" si="71"/>
+        <v>28</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="72"/>
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="J156" s="13"/>
       <c r="K156" s="13"/>
       <c r="L156" s="13"/>
       <c r="M156" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N156" s="18"/>
       <c r="O156" s="18"/>
       <c r="P156" s="18"/>
       <c r="Q156" s="17"/>
       <c r="R156" s="18"/>
-      <c r="S156" s="18" t="s">
-        <v>120</v>
-      </c>
+      <c r="S156" s="18"/>
       <c r="T156" s="18"/>
-      <c r="U156" s="26"/>
+      <c r="U156" s="26" t="s">
+        <v>73</v>
+      </c>
       <c r="V156" s="20"/>
-      <c r="W156" s="37">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="X156" s="18" t="s">
-        <v>229</v>
+      <c r="W156" s="46">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="X156" s="46">
+        <v>0.88680555555555551</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="14.25" customHeight="1">
       <c r="A157" s="43"/>
-      <c r="B157" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="8">
-        <v>45277</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="9">
-        <v>49</v>
-      </c>
-      <c r="F157" s="9">
-        <v>73</v>
-      </c>
-      <c r="G157" s="9">
-        <v>37</v>
-      </c>
-      <c r="H157" s="9">
-        <f t="shared" ref="H157:H158" si="73">E157+F157</f>
-        <v>122</v>
-      </c>
-      <c r="I157" s="9">
+      <c r="B157" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="14">
+        <v>45276</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" s="15">
+        <v>27</v>
+      </c>
+      <c r="F157" s="15">
+        <v>30</v>
+      </c>
+      <c r="G157" s="15">
+        <v>2</v>
+      </c>
+      <c r="H157" s="15">
+        <f>E157+F157+M157</f>
+        <v>60</v>
+      </c>
+      <c r="I157" s="15">
         <f t="shared" si="72"/>
-        <v>159</v>
-      </c>
-      <c r="J157" s="10">
-        <v>4</v>
-      </c>
-      <c r="K157" s="10">
+        <v>62</v>
+      </c>
+      <c r="J157" s="13"/>
+      <c r="K157" s="13"/>
+      <c r="L157" s="13"/>
+      <c r="M157" s="13">
         <v>3</v>
       </c>
-      <c r="L157" s="10">
-        <f t="shared" ref="L157:L158" si="74">J157+K157</f>
-        <v>7</v>
-      </c>
-      <c r="M157" s="10"/>
-      <c r="N157" s="11">
-        <v>11</v>
-      </c>
-      <c r="O157" s="11">
-        <v>18</v>
-      </c>
-      <c r="P157" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q157" s="11">
-        <f t="shared" ref="Q157:Q158" si="75">N157+O157+P157</f>
-        <v>29</v>
-      </c>
-      <c r="R157" s="11">
-        <v>29</v>
-      </c>
-      <c r="S157" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="T157" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="U157" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="V157" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="W157" s="36">
-        <v>0.39652777777777776</v>
-      </c>
-      <c r="X157" s="36">
-        <v>0.56597222222222221</v>
+      <c r="N157" s="18"/>
+      <c r="O157" s="18"/>
+      <c r="P157" s="18"/>
+      <c r="Q157" s="17"/>
+      <c r="R157" s="18"/>
+      <c r="S157" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="T157" s="18"/>
+      <c r="U157" s="26"/>
+      <c r="V157" s="20"/>
+      <c r="W157" s="46">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="X157" s="46">
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="14.25" customHeight="1">
@@ -10996,263 +10993,322 @@
       <c r="B158" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="35">
-        <v>45284</v>
+      <c r="C158" s="8">
+        <v>45277</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E158" s="9">
+        <v>49</v>
+      </c>
+      <c r="F158" s="9">
+        <v>73</v>
+      </c>
+      <c r="G158" s="9">
+        <v>37</v>
+      </c>
+      <c r="H158" s="9">
+        <f t="shared" ref="H158:H159" si="73">E158+F158</f>
+        <v>122</v>
+      </c>
+      <c r="I158" s="9">
+        <f t="shared" si="72"/>
+        <v>159</v>
+      </c>
+      <c r="J158" s="10">
+        <v>4</v>
+      </c>
+      <c r="K158" s="10">
+        <v>3</v>
+      </c>
+      <c r="L158" s="10">
+        <f t="shared" ref="L158:L159" si="74">J158+K158</f>
+        <v>7</v>
+      </c>
+      <c r="M158" s="10"/>
+      <c r="N158" s="11">
+        <v>11</v>
+      </c>
+      <c r="O158" s="11">
+        <v>18</v>
+      </c>
+      <c r="P158" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="11">
+        <f t="shared" ref="Q158:Q159" si="75">N158+O158+P158</f>
+        <v>29</v>
+      </c>
+      <c r="R158" s="11">
+        <v>29</v>
+      </c>
+      <c r="S158" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T158" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U158" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="V158" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="W158" s="45">
+        <v>0.39652777777777776</v>
+      </c>
+      <c r="X158" s="45">
+        <v>0.56597222222222221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A159" s="43"/>
+      <c r="B159" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="35">
+        <v>45284</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="9">
         <v>33</v>
       </c>
-      <c r="F158" s="9">
+      <c r="F159" s="9">
         <v>43</v>
       </c>
-      <c r="G158" s="9">
+      <c r="G159" s="9">
         <v>20</v>
       </c>
-      <c r="H158" s="9">
+      <c r="H159" s="9">
         <f t="shared" si="73"/>
         <v>76</v>
       </c>
-      <c r="I158" s="9">
+      <c r="I159" s="9">
         <f t="shared" si="72"/>
         <v>96</v>
       </c>
-      <c r="J158" s="10">
+      <c r="J159" s="10">
         <v>3</v>
       </c>
-      <c r="K158" s="10">
+      <c r="K159" s="10">
         <v>5</v>
       </c>
-      <c r="L158" s="10">
+      <c r="L159" s="10">
         <f t="shared" si="74"/>
         <v>8</v>
       </c>
-      <c r="M158" s="10"/>
-      <c r="N158" s="11">
+      <c r="M159" s="10"/>
+      <c r="N159" s="11">
         <v>12</v>
       </c>
-      <c r="O158" s="11">
+      <c r="O159" s="11">
         <v>18</v>
       </c>
-      <c r="P158" s="11">
+      <c r="P159" s="11">
         <v>6</v>
       </c>
-      <c r="Q158" s="12">
+      <c r="Q159" s="12">
         <f t="shared" si="75"/>
         <v>36</v>
       </c>
-      <c r="R158" s="11">
+      <c r="R159" s="11">
         <v>12</v>
       </c>
-      <c r="S158" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="T158" s="11" t="s">
+      <c r="S159" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="T159" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="U158" s="11" t="s">
+      <c r="U159" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="V158" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="W158" s="36">
+      <c r="V159" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="W159" s="45">
         <v>0.39652777777777776</v>
       </c>
-      <c r="X158" s="36">
+      <c r="X159" s="45">
         <v>0.52430555555555558</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A159" s="43"/>
-      <c r="B159" s="23" t="s">
+    <row r="160" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A160" s="43"/>
+      <c r="B160" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="24">
+      <c r="C160" s="24">
         <v>45289</v>
       </c>
-      <c r="D159" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E159" s="25">
+      <c r="D160" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E160" s="25">
         <v>17</v>
       </c>
-      <c r="F159" s="25">
+      <c r="F160" s="25">
         <v>18</v>
       </c>
-      <c r="G159" s="25">
+      <c r="G160" s="25">
         <v>3</v>
       </c>
-      <c r="H159" s="25">
-        <f>F159+E159</f>
+      <c r="H160" s="25">
+        <f>F160+E160</f>
         <v>35</v>
       </c>
-      <c r="I159" s="25">
+      <c r="I160" s="25">
         <f t="shared" si="72"/>
         <v>38</v>
       </c>
-      <c r="J159" s="23"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="23"/>
-      <c r="M159" s="23"/>
-      <c r="N159" s="26"/>
-      <c r="O159" s="26"/>
-      <c r="P159" s="26"/>
-      <c r="Q159" s="27"/>
-      <c r="R159" s="26"/>
-      <c r="S159" s="26"/>
-      <c r="T159" s="26"/>
-      <c r="U159" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="V159" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="W159" s="38">
+      <c r="J160" s="23"/>
+      <c r="K160" s="23"/>
+      <c r="L160" s="23"/>
+      <c r="M160" s="23"/>
+      <c r="N160" s="26"/>
+      <c r="O160" s="26"/>
+      <c r="P160" s="26"/>
+      <c r="Q160" s="27"/>
+      <c r="R160" s="26"/>
+      <c r="S160" s="26"/>
+      <c r="T160" s="26"/>
+      <c r="U160" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="V160" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="W160" s="47">
         <v>0.84305555555555556</v>
       </c>
-      <c r="X159" s="38">
+      <c r="X160" s="47">
         <v>0.96736111111111112</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A160" s="6"/>
-      <c r="B160" s="10" t="s">
+    <row r="161" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A161" s="6"/>
+      <c r="B161" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C161" s="8">
         <v>45291</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D161" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E160" s="9">
+      <c r="E161" s="9">
         <v>31</v>
       </c>
-      <c r="F160" s="9">
+      <c r="F161" s="9">
         <v>38</v>
       </c>
-      <c r="G160" s="9">
+      <c r="G161" s="9">
         <v>14</v>
       </c>
-      <c r="H160" s="9">
-        <f t="shared" ref="H160:H161" si="76">E160+F160</f>
+      <c r="H161" s="9">
+        <f t="shared" ref="H161:H162" si="76">E161+F161</f>
         <v>69</v>
       </c>
-      <c r="I160" s="9">
+      <c r="I161" s="9">
         <f t="shared" si="72"/>
         <v>83</v>
       </c>
-      <c r="J160" s="10">
+      <c r="J161" s="10">
         <v>1</v>
       </c>
-      <c r="K160" s="10">
+      <c r="K161" s="10">
         <v>1</v>
       </c>
-      <c r="L160" s="10">
-        <f>J160+K160</f>
+      <c r="L161" s="10">
+        <f>J161+K161</f>
         <v>2</v>
       </c>
-      <c r="M160" s="10"/>
-      <c r="N160" s="11">
+      <c r="M161" s="10"/>
+      <c r="N161" s="11">
         <v>12</v>
       </c>
-      <c r="O160" s="11">
+      <c r="O161" s="11">
         <v>13</v>
       </c>
-      <c r="P160" s="11">
+      <c r="P161" s="11">
         <v>2</v>
       </c>
-      <c r="Q160" s="12">
-        <f>N160+O160+P160</f>
+      <c r="Q161" s="12">
+        <f>N161+O161+P161</f>
         <v>27</v>
       </c>
-      <c r="R160" s="11">
+      <c r="R161" s="11">
         <v>8</v>
       </c>
-      <c r="S160" s="11" t="s">
+      <c r="S161" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="T160" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="U160" s="11" t="s">
+      <c r="T161" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="U161" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="V160" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="W160" s="36">
+      <c r="V161" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="W161" s="45">
         <v>0.3972222222222222</v>
       </c>
-      <c r="X160" s="36">
+      <c r="X161" s="45">
         <v>0.55902777777777779</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A161" s="6"/>
-      <c r="B161" s="23" t="s">
+    <row r="162" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A162" s="6"/>
+      <c r="B162" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="24">
+      <c r="C162" s="24">
         <v>45291</v>
       </c>
-      <c r="D161" s="23" t="s">
+      <c r="D162" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E161" s="25">
+      <c r="E162" s="25">
         <v>46</v>
       </c>
-      <c r="F161" s="25">
+      <c r="F162" s="25">
         <v>75</v>
       </c>
-      <c r="G161" s="25">
+      <c r="G162" s="25">
         <v>23</v>
       </c>
-      <c r="H161" s="25">
+      <c r="H162" s="25">
         <f t="shared" si="76"/>
         <v>121</v>
       </c>
-      <c r="I161" s="25">
+      <c r="I162" s="25">
         <f t="shared" si="72"/>
         <v>144</v>
       </c>
-      <c r="J161" s="23"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="23"/>
-      <c r="M161" s="23"/>
-      <c r="N161" s="26"/>
-      <c r="O161" s="26"/>
-      <c r="P161" s="26"/>
-      <c r="Q161" s="27"/>
-      <c r="R161" s="26"/>
-      <c r="S161" s="26"/>
-      <c r="T161" s="26"/>
-      <c r="U161" s="26"/>
-      <c r="V161" s="26"/>
-      <c r="W161" s="38">
+      <c r="J162" s="23"/>
+      <c r="K162" s="23"/>
+      <c r="L162" s="23"/>
+      <c r="M162" s="23"/>
+      <c r="N162" s="26"/>
+      <c r="O162" s="26"/>
+      <c r="P162" s="26"/>
+      <c r="Q162" s="27"/>
+      <c r="R162" s="26"/>
+      <c r="S162" s="26"/>
+      <c r="T162" s="26"/>
+      <c r="U162" s="26"/>
+      <c r="V162" s="26"/>
+      <c r="W162" s="47">
         <v>0.85069444444444442</v>
       </c>
-      <c r="X161" s="38">
+      <c r="X162" s="47">
         <v>3.125E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
     </row>
     <row r="163" spans="1:24" ht="14.25" customHeight="1">
       <c r="A163" s="1"/>
@@ -22864,8 +22920,28 @@
       <c r="L936" s="1"/>
       <c r="M936" s="1"/>
     </row>
+    <row r="937" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A937" s="1"/>
+      <c r="B937" s="1"/>
+      <c r="C937" s="1"/>
+      <c r="D937" s="1"/>
+      <c r="E937" s="2"/>
+      <c r="F937" s="2"/>
+      <c r="G937" s="1"/>
+      <c r="H937" s="1"/>
+      <c r="I937" s="1"/>
+      <c r="J937" s="1"/>
+      <c r="K937" s="1"/>
+      <c r="L937" s="1"/>
+      <c r="M937" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="A104:A116"/>
+    <mergeCell ref="A119:A130"/>
+    <mergeCell ref="A131:A146"/>
+    <mergeCell ref="A149:A160"/>
     <mergeCell ref="A61:A71"/>
     <mergeCell ref="A74:A88"/>
     <mergeCell ref="A2:A12"/>
@@ -22873,14 +22949,9 @@
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A36:A48"/>
     <mergeCell ref="A49:A59"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="A104:A116"/>
-    <mergeCell ref="A118:A129"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="A148:A159"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="V160" r:id="rId1"/>
+    <hyperlink ref="V161" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
